--- a/dados/XLS_Grid_LANCAMENTO A RECEBER.xlsx
+++ b/dados/XLS_Grid_LANCAMENTO A RECEBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINDOWS\Documents\AREA DE TRABALHO - MEDTEXTIL\CRM_APP\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FBC6EE-20DD-4B03-833F-7B9844BF2B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3823765F-7236-46E6-AA8F-B817CDBD7565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -868,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2601,9 +2601,7 @@
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
-      <c r="E77" s="8">
-        <v>365343.9</v>
-      </c>
+      <c r="E77" s="8"/>
       <c r="F77" s="7"/>
       <c r="G77" s="9"/>
     </row>

--- a/dados/XLS_Grid_LANCAMENTO A RECEBER.xlsx
+++ b/dados/XLS_Grid_LANCAMENTO A RECEBER.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>Funcionário</t>
   </si>
@@ -288,18 +288,18 @@
     <t>01004900.4</t>
   </si>
   <si>
+    <t>BR MEDICAMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>01005075.3</t>
+  </si>
+  <si>
     <t>PHARMACEUTICA DISTRIBUIDORA DE MAT. E MED. HOSPITA</t>
   </si>
   <si>
     <t>01005217.1BP</t>
   </si>
   <si>
-    <t>BR MEDICAMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>01005075.3</t>
-  </si>
-  <si>
     <t>01005217.2BP</t>
   </si>
   <si>
@@ -315,18 +315,18 @@
     <t>01005449.2</t>
   </si>
   <si>
+    <t>DAYCOVAL</t>
+  </si>
+  <si>
+    <t>01005566.1</t>
+  </si>
+  <si>
+    <t>01005566.2</t>
+  </si>
+  <si>
     <t>MED &amp; CLIN COM. E REPRES. E DISTRIB. DE MAT. MED</t>
   </si>
   <si>
-    <t>01005524.1</t>
-  </si>
-  <si>
-    <t>01005566.1</t>
-  </si>
-  <si>
-    <t>01005566.2</t>
-  </si>
-  <si>
     <t>01005524.2</t>
   </si>
   <si>
@@ -342,7 +342,7 @@
     <t>PI</t>
   </si>
   <si>
-    <t>01005566.3</t>
+    <t>01005524.3</t>
   </si>
   <si>
     <t>ATACAMED COMERCIO LTDA</t>
@@ -351,13 +351,7 @@
     <t>01005605.2</t>
   </si>
   <si>
-    <t>MED &amp; FARMA COMERCIO ATACADISTA MEDICAMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>01005567.4</t>
-  </si>
-  <si>
-    <t>01005524.3</t>
+    <t>01005543.3</t>
   </si>
   <si>
     <t>MONTALVAO COMERCIAL LTDA</t>
@@ -366,7 +360,43 @@
     <t>01005571.3</t>
   </si>
   <si>
-    <t>01005543.3</t>
+    <t>PIAUI HOSPITALAR LTDA</t>
+  </si>
+  <si>
+    <t>01005581.4</t>
+  </si>
+  <si>
+    <t>MED DONTO COMERCIO DE PRODUTOS HOSP. LTDA</t>
+  </si>
+  <si>
+    <t>01005823.1</t>
+  </si>
+  <si>
+    <t>R7 DISTRIBUIDORA DE MEDICAMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>01005645.1</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>01005605.3</t>
+  </si>
+  <si>
+    <t>01005647.1</t>
+  </si>
+  <si>
+    <t>MULTIMAIS ATACADO LTDA</t>
+  </si>
+  <si>
+    <t>01005569.5</t>
+  </si>
+  <si>
+    <t>CRALAB SAUDE ATACADO LTDA</t>
+  </si>
+  <si>
+    <t>01005664.1</t>
   </si>
 </sst>
 </file>
@@ -537,7 +567,7 @@
   <sheetPr>
     <outlinePr summaryBelow="true" summaryRight="true"/>
   </sheetPr>
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showZeros="true" showFormulas="false" showGridLines="true" showRowColHeaders="true">
       <selection sqref="A1" activeCell="A1"/>
@@ -1843,7 +1873,7 @@
     </row>
     <row r="57" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A57" s="3" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>91</v>
@@ -1855,16 +1885,18 @@
         <v>45980</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>63289.89</v>
-      </c>
-      <c r="F57" s="3"/>
+        <v>4480</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="G57" s="3" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A58" s="3" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>93</v>
@@ -1876,13 +1908,11 @@
         <v>45980</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>4480</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>63289.89</v>
+      </c>
+      <c r="F58" s="3"/>
       <c r="G58" s="3" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" customHeight="true" ht="14.25" customFormat="true" s="1">
@@ -1890,7 +1920,7 @@
         <v>85</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>95</v>
@@ -1911,7 +1941,7 @@
         <v>71</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>96</v>
@@ -1932,7 +1962,7 @@
         <v>85</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>97</v>
@@ -1964,26 +1994,28 @@
       <c r="E62" s="5" t="n">
         <v>990</v>
       </c>
-      <c r="F62" s="3"/>
+      <c r="F62" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="G62" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="63" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A63" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>101</v>
       </c>
       <c r="D63" s="4" t="n">
-        <v>46034</v>
+        <v>46041</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>2228</v>
+        <v>968.64</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3" t="s">
@@ -2001,10 +2033,10 @@
         <v>102</v>
       </c>
       <c r="D64" s="4" t="n">
-        <v>46041</v>
+        <v>46048</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>968.64</v>
+        <v>776.13</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3" t="s">
@@ -2013,19 +2045,19 @@
     </row>
     <row r="65" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A65" s="3" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D65" s="4" t="n">
         <v>46048</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>776.13</v>
+        <v>2228</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3" t="s">
@@ -2034,63 +2066,63 @@
     </row>
     <row r="66" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A66" s="3" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D66" s="4" t="n">
-        <v>46048</v>
+        <v>46050</v>
       </c>
       <c r="E66" s="5" t="n">
-        <v>2228</v>
-      </c>
-      <c r="F66" s="3"/>
+        <v>8610</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="G66" s="3" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A67" s="3" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D67" s="4" t="n">
-        <v>46050</v>
+        <v>46062</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>8610</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>2228</v>
+      </c>
+      <c r="F67" s="3"/>
       <c r="G67" s="3" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A68" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D68" s="4" t="n">
-        <v>46055</v>
+        <v>46062</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>776.14</v>
+        <v>1836</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3" t="s">
@@ -2105,10 +2137,10 @@
         <v>110</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D69" s="4" t="n">
-        <v>46062</v>
+        <v>46064</v>
       </c>
       <c r="E69" s="5" t="n">
         <v>1836</v>
@@ -2120,98 +2152,190 @@
     </row>
     <row r="70" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A70" s="3" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D70" s="4" t="n">
-        <v>46062</v>
+        <v>46064</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>11934.36</v>
+        <v>468</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A71" s="3" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D71" s="4" t="n">
-        <v>46062</v>
+        <v>46066</v>
       </c>
       <c r="E71" s="5" t="n">
-        <v>2228</v>
-      </c>
-      <c r="F71" s="3"/>
+        <v>2134.1</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="G71" s="3" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A72" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D72" s="4" t="n">
-        <v>46064</v>
+        <v>46066</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>468</v>
+        <v>10596.38</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A73" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D73" s="4" t="n">
+        <v>46066</v>
+      </c>
+      <c r="E73" s="5" t="n">
+        <v>4736.72</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" customHeight="true" ht="14.25" customFormat="true" s="1">
+      <c r="A74" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D73" s="4" t="n">
-        <v>46064</v>
-      </c>
-      <c r="E73" s="5" t="n">
+      <c r="C74" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D74" s="4" t="n">
+        <v>46069</v>
+      </c>
+      <c r="E74" s="5" t="n">
         <v>1836</v>
       </c>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3" t="s">
+      <c r="F74" s="3"/>
+      <c r="G74" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="74" customHeight="true" ht="13.5" customFormat="true" s="1">
-      <c r="A74" s="6"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="8" t="n">
-        <v>352220.81</v>
-      </c>
-      <c r="F74" s="7"/>
-      <c r="G74" s="9"/>
+    <row r="75" customHeight="true" ht="14.25" customFormat="true" s="1">
+      <c r="A75" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D75" s="4" t="n">
+        <v>46069</v>
+      </c>
+      <c r="E75" s="5" t="n">
+        <v>1836</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" customHeight="true" ht="14.25" customFormat="true" s="1">
+      <c r="A76" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D76" s="4" t="n">
+        <v>46069</v>
+      </c>
+      <c r="E76" s="5" t="n">
+        <v>1560</v>
+      </c>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" customHeight="true" ht="14.25" customFormat="true" s="1">
+      <c r="A77" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D77" s="4" t="n">
+        <v>46071</v>
+      </c>
+      <c r="E77" s="5" t="n">
+        <v>2100</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" customHeight="true" ht="13.5" customFormat="true" s="1">
+      <c r="A78" s="6"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="8" t="n">
+        <v>362081.51</v>
+      </c>
+      <c r="F78" s="7"/>
+      <c r="G78" s="9"/>
     </row>
   </sheetData>
   <pageSetup orientation="default" cellComments="none"/>

--- a/dados/XLS_Grid_LANCAMENTO A RECEBER.xlsx
+++ b/dados/XLS_Grid_LANCAMENTO A RECEBER.xlsx
@@ -1,19 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINDOWS\Desktop\dados planilhas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7240293B-87BD-478F-A76C-3636855B4665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XLS_Grid_LANCAMENTO A RECEBER" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr refMode="A1"/>
+  <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="128">
   <si>
     <t>Funcionário</t>
   </si>
@@ -402,28 +414,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="dd/MM/yyyy" numFmtId="164"/>
-    <numFmt formatCode="###,###,##0.00" numFmtId="165"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="###,###,##0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
     <font>
+      <sz val="8"/>
       <color rgb="FF000000"/>
-      <sz val="8"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="8"/>
       <color rgb="FF000000"/>
-      <sz val="8"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -514,78 +525,390 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="2" fontId="1" numFmtId="164" xfId="0">
-      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="2" fontId="1" numFmtId="165" xfId="0">
-      <alignment horizontal="right" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="4" fontId="1" numFmtId="165" xfId="0">
-      <alignment horizontal="right" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="true" summaryRight="true"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true" showZeros="true" showFormulas="false" showGridLines="true" showRowColHeaders="true">
-      <selection sqref="A1" activeCell="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.140625" customHeight="true" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col max="1" min="1" style="1" width="22.28515625" customWidth="true"/>
-    <col max="2" min="2" style="1" width="30.28515625" customWidth="true"/>
-    <col max="3" min="3" style="1" width="12.85546875" customWidth="true"/>
-    <col max="4" min="4" style="1" width="24.7109375" customWidth="true"/>
-    <col max="5" min="5" style="1" width="27.28515625" customWidth="true"/>
-    <col max="6" min="6" style="1" width="26.28515625" customWidth="true"/>
-    <col max="7" min="7" style="1" width="3.7109375" customWidth="true"/>
-    <col max="16384" min="8" style="1" width="12.140625"/>
+    <col min="1" max="1" width="22.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="12.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="true" ht="27" customFormat="true" s="1">
+    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -608,7 +931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -618,11 +941,11 @@
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="4">
         <v>45326</v>
       </c>
-      <c r="E2" s="5" t="n">
-        <v>9391.78</v>
+      <c r="E2" s="5">
+        <v>9391.7800000000007</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>10</v>
@@ -631,7 +954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -641,10 +964,10 @@
       <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="4">
         <v>45346</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="5">
         <v>5418</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -654,7 +977,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -664,11 +987,11 @@
       <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="4">
         <v>45350</v>
       </c>
-      <c r="E4" s="5" t="n">
-        <v>1264.87</v>
+      <c r="E4" s="5">
+        <v>1264.8699999999999</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>16</v>
@@ -677,7 +1000,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -687,10 +1010,10 @@
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="4">
         <v>45356</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="5">
         <v>5418</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -700,7 +1023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -710,10 +1033,10 @@
       <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="4">
         <v>45362</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="5">
         <v>384</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -723,7 +1046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -733,10 +1056,10 @@
       <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="4">
         <v>45364</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="5">
         <v>816</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -746,7 +1069,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -756,10 +1079,10 @@
       <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="4">
         <v>45378</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="5">
         <v>816</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -769,7 +1092,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -779,10 +1102,10 @@
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="4">
         <v>45463</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="5">
         <v>1674.52</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -792,7 +1115,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -802,10 +1125,10 @@
       <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="4">
         <v>45493</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10" s="5">
         <v>873.6</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -815,7 +1138,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -825,10 +1148,10 @@
       <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="4">
         <v>45523</v>
       </c>
-      <c r="E11" s="5" t="n">
+      <c r="E11" s="5">
         <v>873.6</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -838,7 +1161,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -848,10 +1171,10 @@
       <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="4">
         <v>45600</v>
       </c>
-      <c r="E12" s="5" t="n">
+      <c r="E12" s="5">
         <v>2000</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -861,7 +1184,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -871,10 +1194,10 @@
       <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="4">
         <v>45607</v>
       </c>
-      <c r="E13" s="5" t="n">
+      <c r="E13" s="5">
         <v>3204.34</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -884,7 +1207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
@@ -894,11 +1217,11 @@
       <c r="C14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="4">
         <v>45608</v>
       </c>
-      <c r="E14" s="5" t="n">
-        <v>4439.9</v>
+      <c r="E14" s="5">
+        <v>4439.8999999999996</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -907,7 +1230,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
@@ -917,10 +1240,10 @@
       <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="4">
         <v>45614</v>
       </c>
-      <c r="E15" s="5" t="n">
+      <c r="E15" s="5">
         <v>2000</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -930,7 +1253,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -940,11 +1263,11 @@
       <c r="C16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="4">
         <v>45615</v>
       </c>
-      <c r="E16" s="5" t="n">
-        <v>1216.86</v>
+      <c r="E16" s="5">
+        <v>1216.8599999999999</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>10</v>
@@ -953,7 +1276,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
@@ -963,10 +1286,10 @@
       <c r="C17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="4">
         <v>45617</v>
       </c>
-      <c r="E17" s="5" t="n">
+      <c r="E17" s="5">
         <v>1843.87</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -976,7 +1299,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
@@ -986,11 +1309,11 @@
       <c r="C18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="4">
         <v>45622</v>
       </c>
-      <c r="E18" s="5" t="n">
-        <v>1216.86</v>
+      <c r="E18" s="5">
+        <v>1216.8599999999999</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>10</v>
@@ -999,7 +1322,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
@@ -1009,11 +1332,11 @@
       <c r="C19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="4">
         <v>45622</v>
       </c>
-      <c r="E19" s="5" t="n">
-        <v>4439.9</v>
+      <c r="E19" s="5">
+        <v>4439.8999999999996</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>10</v>
@@ -1022,7 +1345,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
@@ -1032,10 +1355,10 @@
       <c r="C20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" s="4">
         <v>45624</v>
       </c>
-      <c r="E20" s="5" t="n">
+      <c r="E20" s="5">
         <v>1843.88</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -1045,7 +1368,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
@@ -1055,11 +1378,11 @@
       <c r="C21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="4">
         <v>45688</v>
       </c>
-      <c r="E21" s="5" t="n">
-        <v>1118.4</v>
+      <c r="E21" s="5">
+        <v>1118.4000000000001</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>10</v>
@@ -1068,7 +1391,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -1078,10 +1401,10 @@
       <c r="C22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="4">
         <v>45695</v>
       </c>
-      <c r="E22" s="5" t="n">
+      <c r="E22" s="5">
         <v>3296.8</v>
       </c>
       <c r="F22" s="3" t="s">
@@ -1091,7 +1414,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -1101,10 +1424,10 @@
       <c r="C23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="D23" s="4">
         <v>45699</v>
       </c>
-      <c r="E23" s="5" t="n">
+      <c r="E23" s="5">
         <v>2330</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -1114,7 +1437,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
@@ -1124,10 +1447,10 @@
       <c r="C24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D24" s="4">
         <v>45702</v>
       </c>
-      <c r="E24" s="5" t="n">
+      <c r="E24" s="5">
         <v>3296.8</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -1137,7 +1460,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1147,10 +1470,10 @@
       <c r="C25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="D25" s="4">
         <v>45705</v>
       </c>
-      <c r="E25" s="5" t="n">
+      <c r="E25" s="5">
         <v>2541</v>
       </c>
       <c r="F25" s="3" t="s">
@@ -1160,7 +1483,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -1170,10 +1493,10 @@
       <c r="C26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="D26" s="4">
         <v>45709</v>
       </c>
-      <c r="E26" s="5" t="n">
+      <c r="E26" s="5">
         <v>3296.8</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -1183,7 +1506,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
@@ -1193,10 +1516,10 @@
       <c r="C27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="D27" s="4">
         <v>45712</v>
       </c>
-      <c r="E27" s="5" t="n">
+      <c r="E27" s="5">
         <v>2541</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -1206,7 +1529,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -1216,10 +1539,10 @@
       <c r="C28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="4" t="n">
+      <c r="D28" s="4">
         <v>45726</v>
       </c>
-      <c r="E28" s="5" t="n">
+      <c r="E28" s="5">
         <v>2541</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -1229,7 +1552,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -1239,10 +1562,10 @@
       <c r="C29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="4" t="n">
+      <c r="D29" s="4">
         <v>45727</v>
       </c>
-      <c r="E29" s="5" t="n">
+      <c r="E29" s="5">
         <v>7562.78</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -1252,7 +1575,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
@@ -1262,10 +1585,10 @@
       <c r="C30" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="4" t="n">
+      <c r="D30" s="4">
         <v>45734</v>
       </c>
-      <c r="E30" s="5" t="n">
+      <c r="E30" s="5">
         <v>7562.78</v>
       </c>
       <c r="F30" s="3" t="s">
@@ -1275,7 +1598,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
@@ -1285,10 +1608,10 @@
       <c r="C31" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="D31" s="4">
         <v>45734</v>
       </c>
-      <c r="E31" s="5" t="n">
+      <c r="E31" s="5">
         <v>1154.56</v>
       </c>
       <c r="F31" s="3" t="s">
@@ -1298,7 +1621,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>27</v>
       </c>
@@ -1308,10 +1631,10 @@
       <c r="C32" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="4" t="n">
+      <c r="D32" s="4">
         <v>45740</v>
       </c>
-      <c r="E32" s="5" t="n">
+      <c r="E32" s="5">
         <v>2541</v>
       </c>
       <c r="F32" s="3" t="s">
@@ -1321,7 +1644,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
@@ -1331,10 +1654,10 @@
       <c r="C33" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="4" t="n">
+      <c r="D33" s="4">
         <v>45741</v>
       </c>
-      <c r="E33" s="5" t="n">
+      <c r="E33" s="5">
         <v>7562.78</v>
       </c>
       <c r="F33" s="3" t="s">
@@ -1344,7 +1667,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>31</v>
       </c>
@@ -1354,10 +1677,10 @@
       <c r="C34" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="4" t="n">
+      <c r="D34" s="4">
         <v>45741</v>
       </c>
-      <c r="E34" s="5" t="n">
+      <c r="E34" s="5">
         <v>1154.56</v>
       </c>
       <c r="F34" s="3" t="s">
@@ -1367,7 +1690,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="35" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>31</v>
       </c>
@@ -1377,10 +1700,10 @@
       <c r="C35" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="4" t="n">
+      <c r="D35" s="4">
         <v>45748</v>
       </c>
-      <c r="E35" s="5" t="n">
+      <c r="E35" s="5">
         <v>1154.56</v>
       </c>
       <c r="F35" s="3" t="s">
@@ -1390,7 +1713,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>27</v>
       </c>
@@ -1400,10 +1723,10 @@
       <c r="C36" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="4" t="n">
+      <c r="D36" s="4">
         <v>45748</v>
       </c>
-      <c r="E36" s="5" t="n">
+      <c r="E36" s="5">
         <v>7562.76</v>
       </c>
       <c r="F36" s="3" t="s">
@@ -1413,7 +1736,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
@@ -1423,10 +1746,10 @@
       <c r="C37" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="4" t="n">
+      <c r="D37" s="4">
         <v>45755</v>
       </c>
-      <c r="E37" s="5" t="n">
+      <c r="E37" s="5">
         <v>1154.56</v>
       </c>
       <c r="F37" s="3" t="s">
@@ -1436,7 +1759,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="38" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
@@ -1446,10 +1769,10 @@
       <c r="C38" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="4" t="n">
+      <c r="D38" s="4">
         <v>45761</v>
       </c>
-      <c r="E38" s="5" t="n">
+      <c r="E38" s="5">
         <v>6169.53</v>
       </c>
       <c r="F38" s="3" t="s">
@@ -1459,7 +1782,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>31</v>
       </c>
@@ -1469,10 +1792,10 @@
       <c r="C39" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="4" t="n">
+      <c r="D39" s="4">
         <v>45768</v>
       </c>
-      <c r="E39" s="5" t="n">
+      <c r="E39" s="5">
         <v>3850</v>
       </c>
       <c r="F39" s="3" t="s">
@@ -1482,7 +1805,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="40" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>31</v>
       </c>
@@ -1492,10 +1815,10 @@
       <c r="C40" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="4" t="n">
+      <c r="D40" s="4">
         <v>45775</v>
       </c>
-      <c r="E40" s="5" t="n">
+      <c r="E40" s="5">
         <v>3850</v>
       </c>
       <c r="F40" s="3" t="s">
@@ -1505,7 +1828,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="41" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>31</v>
       </c>
@@ -1515,10 +1838,10 @@
       <c r="C41" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="4" t="n">
+      <c r="D41" s="4">
         <v>45775</v>
       </c>
-      <c r="E41" s="5" t="n">
+      <c r="E41" s="5">
         <v>6089.41</v>
       </c>
       <c r="F41" s="3" t="s">
@@ -1528,7 +1851,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="42" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>31</v>
       </c>
@@ -1538,10 +1861,10 @@
       <c r="C42" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="4" t="n">
+      <c r="D42" s="4">
         <v>45782</v>
       </c>
-      <c r="E42" s="5" t="n">
+      <c r="E42" s="5">
         <v>3800</v>
       </c>
       <c r="F42" s="3" t="s">
@@ -1551,7 +1874,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="43" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>31</v>
       </c>
@@ -1561,10 +1884,10 @@
       <c r="C43" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="4" t="n">
+      <c r="D43" s="4">
         <v>45789</v>
       </c>
-      <c r="E43" s="5" t="n">
+      <c r="E43" s="5">
         <v>3800</v>
       </c>
       <c r="F43" s="3" t="s">
@@ -1574,7 +1897,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="44" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>71</v>
       </c>
@@ -1584,10 +1907,10 @@
       <c r="C44" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="4" t="n">
+      <c r="D44" s="4">
         <v>45789</v>
       </c>
-      <c r="E44" s="5" t="n">
+      <c r="E44" s="5">
         <v>1143.54</v>
       </c>
       <c r="F44" s="3" t="s">
@@ -1597,7 +1920,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="45" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>71</v>
       </c>
@@ -1607,10 +1930,10 @@
       <c r="C45" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="4" t="n">
+      <c r="D45" s="4">
         <v>45796</v>
       </c>
-      <c r="E45" s="5" t="n">
+      <c r="E45" s="5">
         <v>2287.06</v>
       </c>
       <c r="F45" s="3" t="s">
@@ -1620,7 +1943,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="46" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>13</v>
       </c>
@@ -1630,10 +1953,10 @@
       <c r="C46" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="4" t="n">
+      <c r="D46" s="4">
         <v>45874</v>
       </c>
-      <c r="E46" s="5" t="n">
+      <c r="E46" s="5">
         <v>1326</v>
       </c>
       <c r="F46" s="3"/>
@@ -1641,7 +1964,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="47" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>27</v>
       </c>
@@ -1651,10 +1974,10 @@
       <c r="C47" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D47" s="4" t="n">
+      <c r="D47" s="4">
         <v>45896</v>
       </c>
-      <c r="E47" s="5" t="n">
+      <c r="E47" s="5">
         <v>4572.62</v>
       </c>
       <c r="F47" s="3" t="s">
@@ -1664,7 +1987,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="48" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>27</v>
       </c>
@@ -1674,10 +1997,10 @@
       <c r="C48" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="4" t="n">
+      <c r="D48" s="4">
         <v>45910</v>
       </c>
-      <c r="E48" s="5" t="n">
+      <c r="E48" s="5">
         <v>3663.84</v>
       </c>
       <c r="F48" s="3" t="s">
@@ -1687,7 +2010,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="49" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>27</v>
       </c>
@@ -1697,10 +2020,10 @@
       <c r="C49" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="4" t="n">
+      <c r="D49" s="4">
         <v>45910</v>
       </c>
-      <c r="E49" s="5" t="n">
+      <c r="E49" s="5">
         <v>873.63</v>
       </c>
       <c r="F49" s="3" t="s">
@@ -1710,7 +2033,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="50" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>27</v>
       </c>
@@ -1720,10 +2043,10 @@
       <c r="C50" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D50" s="4" t="n">
+      <c r="D50" s="4">
         <v>45917</v>
       </c>
-      <c r="E50" s="5" t="n">
+      <c r="E50" s="5">
         <v>700</v>
       </c>
       <c r="F50" s="3" t="s">
@@ -1733,7 +2056,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="51" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>27</v>
       </c>
@@ -1743,10 +2066,10 @@
       <c r="C51" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D51" s="4" t="n">
+      <c r="D51" s="4">
         <v>45924</v>
       </c>
-      <c r="E51" s="5" t="n">
+      <c r="E51" s="5">
         <v>700</v>
       </c>
       <c r="F51" s="3" t="s">
@@ -1756,7 +2079,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="52" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>27</v>
       </c>
@@ -1766,10 +2089,10 @@
       <c r="C52" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D52" s="4" t="n">
+      <c r="D52" s="4">
         <v>45924</v>
       </c>
-      <c r="E52" s="5" t="n">
+      <c r="E52" s="5">
         <v>3663.84</v>
       </c>
       <c r="F52" s="3" t="s">
@@ -1779,7 +2102,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="53" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>85</v>
       </c>
@@ -1789,10 +2112,10 @@
       <c r="C53" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="4" t="n">
+      <c r="D53" s="4">
         <v>45947</v>
       </c>
-      <c r="E53" s="5" t="n">
+      <c r="E53" s="5">
         <v>3867.34</v>
       </c>
       <c r="F53" s="3" t="s">
@@ -1802,7 +2125,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="54" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>85</v>
       </c>
@@ -1812,10 +2135,10 @@
       <c r="C54" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D54" s="4" t="n">
+      <c r="D54" s="4">
         <v>45954</v>
       </c>
-      <c r="E54" s="5" t="n">
+      <c r="E54" s="5">
         <v>2144.59</v>
       </c>
       <c r="F54" s="3" t="s">
@@ -1825,7 +2148,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="55" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>85</v>
       </c>
@@ -1835,10 +2158,10 @@
       <c r="C55" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D55" s="4" t="n">
+      <c r="D55" s="4">
         <v>45961</v>
       </c>
-      <c r="E55" s="5" t="n">
+      <c r="E55" s="5">
         <v>2144.59</v>
       </c>
       <c r="F55" s="3" t="s">
@@ -1848,7 +2171,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="56" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>85</v>
       </c>
@@ -1858,10 +2181,10 @@
       <c r="C56" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D56" s="4" t="n">
+      <c r="D56" s="4">
         <v>45968</v>
       </c>
-      <c r="E56" s="5" t="n">
+      <c r="E56" s="5">
         <v>2144.59</v>
       </c>
       <c r="F56" s="3" t="s">
@@ -1871,7 +2194,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="57" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>71</v>
       </c>
@@ -1881,10 +2204,10 @@
       <c r="C57" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D57" s="4" t="n">
+      <c r="D57" s="4">
         <v>45980</v>
       </c>
-      <c r="E57" s="5" t="n">
+      <c r="E57" s="5">
         <v>4480</v>
       </c>
       <c r="F57" s="3" t="s">
@@ -1894,7 +2217,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>85</v>
       </c>
@@ -1904,10 +2227,10 @@
       <c r="C58" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D58" s="4" t="n">
+      <c r="D58" s="4">
         <v>45980</v>
       </c>
-      <c r="E58" s="5" t="n">
+      <c r="E58" s="5">
         <v>63289.89</v>
       </c>
       <c r="F58" s="3"/>
@@ -1915,7 +2238,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="59" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>85</v>
       </c>
@@ -1925,18 +2248,18 @@
       <c r="C59" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="4" t="n">
+      <c r="D59" s="4">
         <v>45987</v>
       </c>
-      <c r="E59" s="5" t="n">
-        <v>33844.16</v>
+      <c r="E59" s="5">
+        <v>33844.160000000003</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="60" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="60" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>71</v>
       </c>
@@ -1946,10 +2269,10 @@
       <c r="C60" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="4" t="n">
+      <c r="D60" s="4">
         <v>45989</v>
       </c>
-      <c r="E60" s="5" t="n">
+      <c r="E60" s="5">
         <v>3220</v>
       </c>
       <c r="F60" s="3"/>
@@ -1957,7 +2280,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>85</v>
       </c>
@@ -1967,10 +2290,10 @@
       <c r="C61" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D61" s="4" t="n">
+      <c r="D61" s="4">
         <v>45994</v>
       </c>
-      <c r="E61" s="5" t="n">
+      <c r="E61" s="5">
         <v>48208.79</v>
       </c>
       <c r="F61" s="3"/>
@@ -1978,7 +2301,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>27</v>
       </c>
@@ -1988,10 +2311,10 @@
       <c r="C62" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D62" s="4" t="n">
+      <c r="D62" s="4">
         <v>46029</v>
       </c>
-      <c r="E62" s="5" t="n">
+      <c r="E62" s="5">
         <v>990</v>
       </c>
       <c r="F62" s="3" t="s">
@@ -2001,7 +2324,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="63" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>27</v>
       </c>
@@ -2011,10 +2334,10 @@
       <c r="C63" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D63" s="4" t="n">
+      <c r="D63" s="4">
         <v>46041</v>
       </c>
-      <c r="E63" s="5" t="n">
+      <c r="E63" s="5">
         <v>968.64</v>
       </c>
       <c r="F63" s="3"/>
@@ -2022,7 +2345,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="64" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>27</v>
       </c>
@@ -2032,10 +2355,10 @@
       <c r="C64" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D64" s="4" t="n">
+      <c r="D64" s="4">
         <v>46048</v>
       </c>
-      <c r="E64" s="5" t="n">
+      <c r="E64" s="5">
         <v>776.13</v>
       </c>
       <c r="F64" s="3"/>
@@ -2043,7 +2366,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="65" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>41</v>
       </c>
@@ -2053,10 +2376,10 @@
       <c r="C65" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D65" s="4" t="n">
+      <c r="D65" s="4">
         <v>46048</v>
       </c>
-      <c r="E65" s="5" t="n">
+      <c r="E65" s="5">
         <v>2228</v>
       </c>
       <c r="F65" s="3"/>
@@ -2064,7 +2387,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="66" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>105</v>
       </c>
@@ -2074,10 +2397,10 @@
       <c r="C66" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D66" s="4" t="n">
+      <c r="D66" s="4">
         <v>46050</v>
       </c>
-      <c r="E66" s="5" t="n">
+      <c r="E66" s="5">
         <v>8610</v>
       </c>
       <c r="F66" s="3" t="s">
@@ -2087,7 +2410,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="67" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>41</v>
       </c>
@@ -2097,10 +2420,10 @@
       <c r="C67" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D67" s="4" t="n">
+      <c r="D67" s="4">
         <v>46062</v>
       </c>
-      <c r="E67" s="5" t="n">
+      <c r="E67" s="5">
         <v>2228</v>
       </c>
       <c r="F67" s="3"/>
@@ -2108,7 +2431,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="68" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>13</v>
       </c>
@@ -2118,10 +2441,10 @@
       <c r="C68" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D68" s="4" t="n">
+      <c r="D68" s="4">
         <v>46062</v>
       </c>
-      <c r="E68" s="5" t="n">
+      <c r="E68" s="5">
         <v>1836</v>
       </c>
       <c r="F68" s="3"/>
@@ -2129,7 +2452,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="69" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="69" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>13</v>
       </c>
@@ -2139,10 +2462,10 @@
       <c r="C69" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D69" s="4" t="n">
+      <c r="D69" s="4">
         <v>46064</v>
       </c>
-      <c r="E69" s="5" t="n">
+      <c r="E69" s="5">
         <v>1836</v>
       </c>
       <c r="F69" s="3"/>
@@ -2150,7 +2473,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="70" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>7</v>
       </c>
@@ -2160,10 +2483,10 @@
       <c r="C70" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D70" s="4" t="n">
+      <c r="D70" s="4">
         <v>46064</v>
       </c>
-      <c r="E70" s="5" t="n">
+      <c r="E70" s="5">
         <v>468</v>
       </c>
       <c r="F70" s="3"/>
@@ -2171,7 +2494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="71" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>105</v>
       </c>
@@ -2181,10 +2504,10 @@
       <c r="C71" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D71" s="4" t="n">
+      <c r="D71" s="4">
         <v>46066</v>
       </c>
-      <c r="E71" s="5" t="n">
+      <c r="E71" s="5">
         <v>2134.1</v>
       </c>
       <c r="F71" s="3" t="s">
@@ -2194,7 +2517,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="72" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>13</v>
       </c>
@@ -2204,10 +2527,10 @@
       <c r="C72" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D72" s="4" t="n">
+      <c r="D72" s="4">
         <v>46066</v>
       </c>
-      <c r="E72" s="5" t="n">
+      <c r="E72" s="5">
         <v>10596.38</v>
       </c>
       <c r="F72" s="3"/>
@@ -2215,7 +2538,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="73" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>105</v>
       </c>
@@ -2225,10 +2548,10 @@
       <c r="C73" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D73" s="4" t="n">
+      <c r="D73" s="4">
         <v>46066</v>
       </c>
-      <c r="E73" s="5" t="n">
+      <c r="E73" s="5">
         <v>4736.72</v>
       </c>
       <c r="F73" s="3" t="s">
@@ -2238,7 +2561,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="74" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="74" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>13</v>
       </c>
@@ -2248,10 +2571,10 @@
       <c r="C74" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D74" s="4" t="n">
+      <c r="D74" s="4">
         <v>46069</v>
       </c>
-      <c r="E74" s="5" t="n">
+      <c r="E74" s="5">
         <v>1836</v>
       </c>
       <c r="F74" s="3"/>
@@ -2259,7 +2582,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="75" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>13</v>
       </c>
@@ -2269,10 +2592,10 @@
       <c r="C75" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D75" s="4" t="n">
+      <c r="D75" s="4">
         <v>46069</v>
       </c>
-      <c r="E75" s="5" t="n">
+      <c r="E75" s="5">
         <v>1836</v>
       </c>
       <c r="F75" s="3" t="s">
@@ -2282,7 +2605,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="76" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>27</v>
       </c>
@@ -2292,10 +2615,10 @@
       <c r="C76" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D76" s="4" t="n">
+      <c r="D76" s="4">
         <v>46069</v>
       </c>
-      <c r="E76" s="5" t="n">
+      <c r="E76" s="5">
         <v>1560</v>
       </c>
       <c r="F76" s="3"/>
@@ -2303,7 +2626,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="77" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>71</v>
       </c>
@@ -2313,10 +2636,10 @@
       <c r="C77" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D77" s="4" t="n">
+      <c r="D77" s="4">
         <v>46071</v>
       </c>
-      <c r="E77" s="5" t="n">
+      <c r="E77" s="5">
         <v>2100</v>
       </c>
       <c r="F77" s="3" t="s">
@@ -2326,18 +2649,16 @@
         <v>74</v>
       </c>
     </row>
-    <row r="78" customHeight="true" ht="13.5" customFormat="true" s="1">
+    <row r="78" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
-      <c r="E78" s="8" t="n">
-        <v>362081.51</v>
-      </c>
+      <c r="E78" s="8"/>
       <c r="F78" s="7"/>
       <c r="G78" s="9"/>
     </row>
   </sheetData>
-  <pageSetup orientation="default" cellComments="none"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/dados/XLS_Grid_LANCAMENTO A RECEBER.xlsx
+++ b/dados/XLS_Grid_LANCAMENTO A RECEBER.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINDOWS\Desktop\dados planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7240293B-87BD-478F-A76C-3636855B4665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076F8155-F2C2-481D-ACCC-87E22D76BF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XLS_Grid_LANCAMENTO A RECEBER" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'XLS_Grid_LANCAMENTO A RECEBER'!$A$1:$G$77</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
@@ -437,7 +440,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,14 +459,8 @@
         <bgColor rgb="FF7EA6D1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF0F0F0"/>
-        <bgColor rgb="FFF0F0F0"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -486,48 +483,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFA0A0A0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFA0A0A0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA0A0A0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFA0A0A0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA0A0A0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFA0A0A0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFA0A0A0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA0A0A0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -543,18 +503,6 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -890,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2649,16 +2597,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="9"/>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:G77" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/dados/XLS_Grid_LANCAMENTO A RECEBER.xlsx
+++ b/dados/XLS_Grid_LANCAMENTO A RECEBER.xlsx
@@ -1,34 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINDOWS\Desktop\dados planilhas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076F8155-F2C2-481D-ACCC-87E22D76BF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true"/>
   </bookViews>
   <sheets>
     <sheet name="XLS_Grid_LANCAMENTO A RECEBER" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'XLS_Grid_LANCAMENTO A RECEBER'!$A$1:$G$77</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
+  <calcPr refMode="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>Funcionário</t>
   </si>
@@ -303,18 +288,18 @@
     <t>01004900.4</t>
   </si>
   <si>
+    <t>PHARMACEUTICA DISTRIBUIDORA DE MAT. E MED. HOSPITA</t>
+  </si>
+  <si>
+    <t>01005217.1BP</t>
+  </si>
+  <si>
     <t>BR MEDICAMENTOS LTDA</t>
   </si>
   <si>
     <t>01005075.3</t>
   </si>
   <si>
-    <t>PHARMACEUTICA DISTRIBUIDORA DE MAT. E MED. HOSPITA</t>
-  </si>
-  <si>
-    <t>01005217.1BP</t>
-  </si>
-  <si>
     <t>01005217.2BP</t>
   </si>
   <si>
@@ -324,21 +309,6 @@
     <t>01005217.3</t>
   </si>
   <si>
-    <t>REALMED COMERCIO DE PRODUTOS MEDICOS E HOSPITALARE</t>
-  </si>
-  <si>
-    <t>01005449.2</t>
-  </si>
-  <si>
-    <t>DAYCOVAL</t>
-  </si>
-  <si>
-    <t>01005566.1</t>
-  </si>
-  <si>
-    <t>01005566.2</t>
-  </si>
-  <si>
     <t>MED &amp; CLIN COM. E REPRES. E DISTRIB. DE MAT. MED</t>
   </si>
   <si>
@@ -360,87 +330,97 @@
     <t>01005524.3</t>
   </si>
   <si>
+    <t>MONTALVAO COMERCIAL LTDA</t>
+  </si>
+  <si>
+    <t>01005571.3</t>
+  </si>
+  <si>
+    <t>R7 DISTRIBUIDORA DE MEDICAMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>01005645.1</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
     <t>ATACAMED COMERCIO LTDA</t>
   </si>
   <si>
-    <t>01005605.2</t>
-  </si>
-  <si>
-    <t>01005543.3</t>
-  </si>
-  <si>
-    <t>MONTALVAO COMERCIAL LTDA</t>
-  </si>
-  <si>
-    <t>01005571.3</t>
-  </si>
-  <si>
-    <t>PIAUI HOSPITALAR LTDA</t>
-  </si>
-  <si>
-    <t>01005581.4</t>
-  </si>
-  <si>
-    <t>MED DONTO COMERCIO DE PRODUTOS HOSP. LTDA</t>
-  </si>
-  <si>
-    <t>01005823.1</t>
-  </si>
-  <si>
-    <t>R7 DISTRIBUIDORA DE MEDICAMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>01005645.1</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
     <t>01005605.3</t>
   </si>
   <si>
     <t>01005647.1</t>
   </si>
   <si>
-    <t>MULTIMAIS ATACADO LTDA</t>
-  </si>
-  <si>
-    <t>01005569.5</t>
-  </si>
-  <si>
     <t>CRALAB SAUDE ATACADO LTDA</t>
   </si>
   <si>
     <t>01005664.1</t>
+  </si>
+  <si>
+    <t>01005561.4</t>
+  </si>
+  <si>
+    <t>01005645.2</t>
+  </si>
+  <si>
+    <t>01005571.4</t>
+  </si>
+  <si>
+    <t>K C L COSTA COMERCIO ATAC. DE MAT. HOSP. LTDA</t>
+  </si>
+  <si>
+    <t>01005695.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZOE MED COMERCIO DE PRODUTOS MEDICOS HOSPITALARES </t>
+  </si>
+  <si>
+    <t>01005686.1</t>
+  </si>
+  <si>
+    <t>ASPEN SERVICE COMERCIO LTDA</t>
+  </si>
+  <si>
+    <t>01005634.2</t>
+  </si>
+  <si>
+    <t>L G PRODUTOS HOSPITALARES LTDA</t>
+  </si>
+  <si>
+    <t>01005621.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="###,###,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt formatCode="dd/MM/yyyy" numFmtId="164"/>
+    <numFmt formatCode="###,###,##0.00" numFmtId="165"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
       <sz val="8"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
       <sz val="8"/>
-      <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -459,8 +439,14 @@
         <bgColor rgb="FF7EA6D1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F0F0"/>
+        <bgColor rgb="FFF0F0F0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -483,380 +469,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA0A0A0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFA0A0A0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+  <cellXfs count="10">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="2" fontId="1" numFmtId="164" xfId="0">
+      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="2" fontId="1" numFmtId="165" xfId="0">
+      <alignment horizontal="right" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="4" fontId="1" numFmtId="165" xfId="0">
+      <alignment horizontal="right" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="0E2841"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="156082"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="E97132"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="196B24"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="A02B93"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="4EA72E"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="467886"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="96607D"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
+  </sheetPr>
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0" tabSelected="true" showZeros="true" showFormulas="false" showGridLines="true" showRowColHeaders="true">
+      <selection sqref="A1" activeCell="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.140625" customHeight="true" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="12.140625" style="1"/>
+    <col max="1" min="1" style="1" width="22.28515625" customWidth="true"/>
+    <col max="2" min="2" style="1" width="30.28515625" customWidth="true"/>
+    <col max="3" min="3" style="1" width="12.85546875" customWidth="true"/>
+    <col max="4" min="4" style="1" width="24.7109375" customWidth="true"/>
+    <col max="5" min="5" style="1" width="27.28515625" customWidth="true"/>
+    <col max="6" min="6" style="1" width="26.28515625" customWidth="true"/>
+    <col max="7" min="7" style="1" width="3.7109375" customWidth="true"/>
+    <col max="16384" min="8" style="1" width="12.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customHeight="true" ht="27" customFormat="true" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -879,7 +602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -889,11 +612,11 @@
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="4" t="n">
         <v>45326</v>
       </c>
-      <c r="E2" s="5">
-        <v>9391.7800000000007</v>
+      <c r="E2" s="5" t="n">
+        <v>9391.78</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>10</v>
@@ -902,7 +625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -912,10 +635,10 @@
       <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="4" t="n">
         <v>45346</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="5" t="n">
         <v>5418</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -925,7 +648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -935,11 +658,11 @@
       <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="4" t="n">
         <v>45350</v>
       </c>
-      <c r="E4" s="5">
-        <v>1264.8699999999999</v>
+      <c r="E4" s="5" t="n">
+        <v>1264.87</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>16</v>
@@ -948,7 +671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -958,10 +681,10 @@
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="4" t="n">
         <v>45356</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="5" t="n">
         <v>5418</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -971,7 +694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -981,10 +704,10 @@
       <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="4" t="n">
         <v>45362</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="5" t="n">
         <v>384</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -994,7 +717,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1004,10 +727,10 @@
       <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="4" t="n">
         <v>45364</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="5" t="n">
         <v>816</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -1017,7 +740,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1027,10 +750,10 @@
       <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="4" t="n">
         <v>45378</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="5" t="n">
         <v>816</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -1040,7 +763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1050,10 +773,10 @@
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="4" t="n">
         <v>45463</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="5" t="n">
         <v>1674.52</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1063,7 +786,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1073,10 +796,10 @@
       <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="4" t="n">
         <v>45493</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="5" t="n">
         <v>873.6</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -1086,7 +809,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1096,10 +819,10 @@
       <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="4" t="n">
         <v>45523</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="5" t="n">
         <v>873.6</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -1109,7 +832,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -1119,10 +842,10 @@
       <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="4" t="n">
         <v>45600</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="5" t="n">
         <v>2000</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -1132,7 +855,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -1142,10 +865,10 @@
       <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="4" t="n">
         <v>45607</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="5" t="n">
         <v>3204.34</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -1155,7 +878,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
@@ -1165,11 +888,11 @@
       <c r="C14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="4" t="n">
         <v>45608</v>
       </c>
-      <c r="E14" s="5">
-        <v>4439.8999999999996</v>
+      <c r="E14" s="5" t="n">
+        <v>4439.9</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -1178,7 +901,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
@@ -1188,10 +911,10 @@
       <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="4" t="n">
         <v>45614</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="5" t="n">
         <v>2000</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -1201,7 +924,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -1211,11 +934,11 @@
       <c r="C16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="4" t="n">
         <v>45615</v>
       </c>
-      <c r="E16" s="5">
-        <v>1216.8599999999999</v>
+      <c r="E16" s="5" t="n">
+        <v>1216.86</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>10</v>
@@ -1224,7 +947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
@@ -1234,10 +957,10 @@
       <c r="C17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="4" t="n">
         <v>45617</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="5" t="n">
         <v>1843.87</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -1247,7 +970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
@@ -1257,11 +980,11 @@
       <c r="C18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="4" t="n">
         <v>45622</v>
       </c>
-      <c r="E18" s="5">
-        <v>1216.8599999999999</v>
+      <c r="E18" s="5" t="n">
+        <v>1216.86</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>10</v>
@@ -1270,7 +993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
@@ -1280,11 +1003,11 @@
       <c r="C19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="4" t="n">
         <v>45622</v>
       </c>
-      <c r="E19" s="5">
-        <v>4439.8999999999996</v>
+      <c r="E19" s="5" t="n">
+        <v>4439.9</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>10</v>
@@ -1293,7 +1016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
@@ -1303,10 +1026,10 @@
       <c r="C20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="4" t="n">
         <v>45624</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="5" t="n">
         <v>1843.88</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -1316,7 +1039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
@@ -1326,11 +1049,11 @@
       <c r="C21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="4" t="n">
         <v>45688</v>
       </c>
-      <c r="E21" s="5">
-        <v>1118.4000000000001</v>
+      <c r="E21" s="5" t="n">
+        <v>1118.4</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>10</v>
@@ -1339,7 +1062,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -1349,10 +1072,10 @@
       <c r="C22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="4" t="n">
         <v>45695</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="5" t="n">
         <v>3296.8</v>
       </c>
       <c r="F22" s="3" t="s">
@@ -1362,7 +1085,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -1372,10 +1095,10 @@
       <c r="C23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="4" t="n">
         <v>45699</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="5" t="n">
         <v>2330</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -1385,7 +1108,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
@@ -1395,10 +1118,10 @@
       <c r="C24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="4" t="n">
         <v>45702</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="5" t="n">
         <v>3296.8</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -1408,7 +1131,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1418,10 +1141,10 @@
       <c r="C25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="4" t="n">
         <v>45705</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="5" t="n">
         <v>2541</v>
       </c>
       <c r="F25" s="3" t="s">
@@ -1431,7 +1154,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -1441,10 +1164,10 @@
       <c r="C26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="4" t="n">
         <v>45709</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="5" t="n">
         <v>3296.8</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -1454,7 +1177,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
@@ -1464,10 +1187,10 @@
       <c r="C27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="4" t="n">
         <v>45712</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="5" t="n">
         <v>2541</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -1477,7 +1200,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -1487,10 +1210,10 @@
       <c r="C28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="4" t="n">
         <v>45726</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="5" t="n">
         <v>2541</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -1500,7 +1223,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -1510,10 +1233,10 @@
       <c r="C29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="4" t="n">
         <v>45727</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="5" t="n">
         <v>7562.78</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -1523,7 +1246,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
@@ -1533,10 +1256,10 @@
       <c r="C30" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="4" t="n">
         <v>45734</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="5" t="n">
         <v>7562.78</v>
       </c>
       <c r="F30" s="3" t="s">
@@ -1546,7 +1269,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
@@ -1556,10 +1279,10 @@
       <c r="C31" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="4" t="n">
         <v>45734</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="5" t="n">
         <v>1154.56</v>
       </c>
       <c r="F31" s="3" t="s">
@@ -1569,7 +1292,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A32" s="3" t="s">
         <v>27</v>
       </c>
@@ -1579,10 +1302,10 @@
       <c r="C32" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="4" t="n">
         <v>45740</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="5" t="n">
         <v>2541</v>
       </c>
       <c r="F32" s="3" t="s">
@@ -1592,7 +1315,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
@@ -1602,10 +1325,10 @@
       <c r="C33" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="4" t="n">
         <v>45741</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="5" t="n">
         <v>7562.78</v>
       </c>
       <c r="F33" s="3" t="s">
@@ -1615,7 +1338,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A34" s="3" t="s">
         <v>31</v>
       </c>
@@ -1625,10 +1348,10 @@
       <c r="C34" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="4" t="n">
         <v>45741</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="5" t="n">
         <v>1154.56</v>
       </c>
       <c r="F34" s="3" t="s">
@@ -1638,7 +1361,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A35" s="3" t="s">
         <v>31</v>
       </c>
@@ -1648,10 +1371,10 @@
       <c r="C35" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="4" t="n">
         <v>45748</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="5" t="n">
         <v>1154.56</v>
       </c>
       <c r="F35" s="3" t="s">
@@ -1661,7 +1384,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A36" s="3" t="s">
         <v>27</v>
       </c>
@@ -1671,10 +1394,10 @@
       <c r="C36" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="4" t="n">
         <v>45748</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="5" t="n">
         <v>7562.76</v>
       </c>
       <c r="F36" s="3" t="s">
@@ -1684,7 +1407,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
@@ -1694,10 +1417,10 @@
       <c r="C37" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="4" t="n">
         <v>45755</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="5" t="n">
         <v>1154.56</v>
       </c>
       <c r="F37" s="3" t="s">
@@ -1707,7 +1430,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
@@ -1717,10 +1440,10 @@
       <c r="C38" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="4" t="n">
         <v>45761</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="5" t="n">
         <v>6169.53</v>
       </c>
       <c r="F38" s="3" t="s">
@@ -1730,7 +1453,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A39" s="3" t="s">
         <v>31</v>
       </c>
@@ -1740,10 +1463,10 @@
       <c r="C39" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="4" t="n">
         <v>45768</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="5" t="n">
         <v>3850</v>
       </c>
       <c r="F39" s="3" t="s">
@@ -1753,7 +1476,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A40" s="3" t="s">
         <v>31</v>
       </c>
@@ -1763,10 +1486,10 @@
       <c r="C40" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="4" t="n">
         <v>45775</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="5" t="n">
         <v>3850</v>
       </c>
       <c r="F40" s="3" t="s">
@@ -1776,7 +1499,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A41" s="3" t="s">
         <v>31</v>
       </c>
@@ -1786,10 +1509,10 @@
       <c r="C41" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="4" t="n">
         <v>45775</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="5" t="n">
         <v>6089.41</v>
       </c>
       <c r="F41" s="3" t="s">
@@ -1799,7 +1522,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A42" s="3" t="s">
         <v>31</v>
       </c>
@@ -1809,10 +1532,10 @@
       <c r="C42" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="4" t="n">
         <v>45782</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="5" t="n">
         <v>3800</v>
       </c>
       <c r="F42" s="3" t="s">
@@ -1822,7 +1545,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A43" s="3" t="s">
         <v>31</v>
       </c>
@@ -1832,10 +1555,10 @@
       <c r="C43" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="4" t="n">
         <v>45789</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="5" t="n">
         <v>3800</v>
       </c>
       <c r="F43" s="3" t="s">
@@ -1845,7 +1568,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A44" s="3" t="s">
         <v>71</v>
       </c>
@@ -1855,10 +1578,10 @@
       <c r="C44" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="4" t="n">
         <v>45789</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="5" t="n">
         <v>1143.54</v>
       </c>
       <c r="F44" s="3" t="s">
@@ -1868,7 +1591,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A45" s="3" t="s">
         <v>71</v>
       </c>
@@ -1878,10 +1601,10 @@
       <c r="C45" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="4" t="n">
         <v>45796</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="5" t="n">
         <v>2287.06</v>
       </c>
       <c r="F45" s="3" t="s">
@@ -1891,7 +1614,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A46" s="3" t="s">
         <v>13</v>
       </c>
@@ -1901,10 +1624,10 @@
       <c r="C46" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="4" t="n">
         <v>45874</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="5" t="n">
         <v>1326</v>
       </c>
       <c r="F46" s="3"/>
@@ -1912,7 +1635,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A47" s="3" t="s">
         <v>27</v>
       </c>
@@ -1922,10 +1645,10 @@
       <c r="C47" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="4" t="n">
         <v>45896</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="5" t="n">
         <v>4572.62</v>
       </c>
       <c r="F47" s="3" t="s">
@@ -1935,7 +1658,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A48" s="3" t="s">
         <v>27</v>
       </c>
@@ -1945,10 +1668,10 @@
       <c r="C48" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="4" t="n">
         <v>45910</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="5" t="n">
         <v>3663.84</v>
       </c>
       <c r="F48" s="3" t="s">
@@ -1958,7 +1681,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A49" s="3" t="s">
         <v>27</v>
       </c>
@@ -1968,10 +1691,10 @@
       <c r="C49" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="4" t="n">
         <v>45910</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="5" t="n">
         <v>873.63</v>
       </c>
       <c r="F49" s="3" t="s">
@@ -1981,7 +1704,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A50" s="3" t="s">
         <v>27</v>
       </c>
@@ -1991,10 +1714,10 @@
       <c r="C50" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="4" t="n">
         <v>45917</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="5" t="n">
         <v>700</v>
       </c>
       <c r="F50" s="3" t="s">
@@ -2004,7 +1727,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A51" s="3" t="s">
         <v>27</v>
       </c>
@@ -2014,10 +1737,10 @@
       <c r="C51" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="4" t="n">
         <v>45924</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="5" t="n">
         <v>700</v>
       </c>
       <c r="F51" s="3" t="s">
@@ -2027,7 +1750,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A52" s="3" t="s">
         <v>27</v>
       </c>
@@ -2037,10 +1760,10 @@
       <c r="C52" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="4" t="n">
         <v>45924</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="5" t="n">
         <v>3663.84</v>
       </c>
       <c r="F52" s="3" t="s">
@@ -2050,7 +1773,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A53" s="3" t="s">
         <v>85</v>
       </c>
@@ -2060,10 +1783,10 @@
       <c r="C53" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="4" t="n">
         <v>45947</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="5" t="n">
         <v>3867.34</v>
       </c>
       <c r="F53" s="3" t="s">
@@ -2073,7 +1796,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A54" s="3" t="s">
         <v>85</v>
       </c>
@@ -2083,10 +1806,10 @@
       <c r="C54" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="4" t="n">
         <v>45954</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="5" t="n">
         <v>2144.59</v>
       </c>
       <c r="F54" s="3" t="s">
@@ -2096,7 +1819,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A55" s="3" t="s">
         <v>85</v>
       </c>
@@ -2106,10 +1829,10 @@
       <c r="C55" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="4" t="n">
         <v>45961</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="5" t="n">
         <v>2144.59</v>
       </c>
       <c r="F55" s="3" t="s">
@@ -2119,7 +1842,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A56" s="3" t="s">
         <v>85</v>
       </c>
@@ -2129,10 +1852,10 @@
       <c r="C56" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="4" t="n">
         <v>45968</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="5" t="n">
         <v>2144.59</v>
       </c>
       <c r="F56" s="3" t="s">
@@ -2142,9 +1865,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A57" s="3" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>91</v>
@@ -2152,22 +1875,20 @@
       <c r="C57" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="4" t="n">
         <v>45980</v>
       </c>
-      <c r="E57" s="5">
-        <v>4480</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="E57" s="5" t="n">
+        <v>63289.89</v>
+      </c>
+      <c r="F57" s="3"/>
       <c r="G57" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A58" s="3" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>93</v>
@@ -2175,52 +1896,54 @@
       <c r="C58" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="4" t="n">
         <v>45980</v>
       </c>
-      <c r="E58" s="5">
-        <v>63289.89</v>
-      </c>
-      <c r="F58" s="3"/>
+      <c r="E58" s="5" t="n">
+        <v>4480</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="G58" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A59" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="4" t="n">
         <v>45987</v>
       </c>
-      <c r="E59" s="5">
-        <v>33844.160000000003</v>
+      <c r="E59" s="5" t="n">
+        <v>33844.16</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A60" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="4" t="n">
         <v>45989</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="5" t="n">
         <v>3220</v>
       </c>
       <c r="F60" s="3"/>
@@ -2228,20 +1951,20 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A61" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="4" t="n">
         <v>45994</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="5" t="n">
         <v>48208.79</v>
       </c>
       <c r="F61" s="3"/>
@@ -2249,9 +1972,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A62" s="3" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>98</v>
@@ -2259,127 +1982,127 @@
       <c r="C62" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D62" s="4">
-        <v>46029</v>
-      </c>
-      <c r="E62" s="5">
-        <v>990</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="D62" s="4" t="n">
+        <v>46048</v>
+      </c>
+      <c r="E62" s="5" t="n">
+        <v>2228</v>
+      </c>
+      <c r="F62" s="3"/>
       <c r="G62" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A63" s="3" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D63" s="4">
-        <v>46041</v>
-      </c>
-      <c r="E63" s="5">
-        <v>968.64</v>
-      </c>
-      <c r="F63" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="D63" s="4" t="n">
+        <v>46050</v>
+      </c>
+      <c r="E63" s="5" t="n">
+        <v>8610</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="G63" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A64" s="3" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D64" s="4">
-        <v>46048</v>
-      </c>
-      <c r="E64" s="5">
-        <v>776.13</v>
+        <v>104</v>
+      </c>
+      <c r="D64" s="4" t="n">
+        <v>46062</v>
+      </c>
+      <c r="E64" s="5" t="n">
+        <v>2228</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A65" s="3" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D65" s="4">
-        <v>46048</v>
-      </c>
-      <c r="E65" s="5">
-        <v>2228</v>
+        <v>106</v>
+      </c>
+      <c r="D65" s="4" t="n">
+        <v>46064</v>
+      </c>
+      <c r="E65" s="5" t="n">
+        <v>468</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A66" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D66" s="4">
-        <v>46050</v>
-      </c>
-      <c r="E66" s="5">
-        <v>8610</v>
+        <v>108</v>
+      </c>
+      <c r="D66" s="4" t="n">
+        <v>46066</v>
+      </c>
+      <c r="E66" s="5" t="n">
+        <v>4736.72</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A67" s="3" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D67" s="4">
-        <v>46062</v>
-      </c>
-      <c r="E67" s="5">
-        <v>2228</v>
+        <v>111</v>
+      </c>
+      <c r="D67" s="4" t="n">
+        <v>46069</v>
+      </c>
+      <c r="E67" s="5" t="n">
+        <v>1836</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A68" s="3" t="s">
         <v>13</v>
       </c>
@@ -2387,173 +2110,177 @@
         <v>110</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D68" s="4">
-        <v>46062</v>
-      </c>
-      <c r="E68" s="5">
+        <v>112</v>
+      </c>
+      <c r="D68" s="4" t="n">
+        <v>46069</v>
+      </c>
+      <c r="E68" s="5" t="n">
         <v>1836</v>
       </c>
-      <c r="F68" s="3"/>
+      <c r="F68" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="G68" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A69" s="3" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D69" s="4">
-        <v>46064</v>
-      </c>
-      <c r="E69" s="5">
-        <v>1836</v>
-      </c>
-      <c r="F69" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="D69" s="4" t="n">
+        <v>46071</v>
+      </c>
+      <c r="E69" s="5" t="n">
+        <v>2100</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="G69" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A70" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D70" s="4">
-        <v>46064</v>
-      </c>
-      <c r="E70" s="5">
-        <v>468</v>
+        <v>115</v>
+      </c>
+      <c r="D70" s="4" t="n">
+        <v>46073</v>
+      </c>
+      <c r="E70" s="5" t="n">
+        <v>5898</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A71" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D71" s="4">
-        <v>46066</v>
-      </c>
-      <c r="E71" s="5">
-        <v>2134.1</v>
+      <c r="D71" s="4" t="n">
+        <v>46073</v>
+      </c>
+      <c r="E71" s="5" t="n">
+        <v>4736.72</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A72" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D72" s="4">
-        <v>46066</v>
-      </c>
-      <c r="E72" s="5">
-        <v>10596.38</v>
+      <c r="D72" s="4" t="n">
+        <v>46074</v>
+      </c>
+      <c r="E72" s="5" t="n">
+        <v>468</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A73" s="3" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="B73" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="D73" s="4" t="n">
+        <v>46075</v>
+      </c>
+      <c r="E73" s="5" t="n">
+        <v>837.49</v>
+      </c>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" customHeight="true" ht="14.25" customFormat="true" s="1">
+      <c r="A74" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D73" s="4">
-        <v>46066</v>
-      </c>
-      <c r="E73" s="5">
-        <v>4736.72</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C74" s="3" t="s">
+      <c r="D74" s="4" t="n">
+        <v>46076</v>
+      </c>
+      <c r="E74" s="5" t="n">
+        <v>7287</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" customHeight="true" ht="14.25" customFormat="true" s="1">
+      <c r="A75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="D74" s="4">
-        <v>46069</v>
-      </c>
-      <c r="E74" s="5">
-        <v>1836</v>
-      </c>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D75" s="4">
-        <v>46069</v>
-      </c>
-      <c r="E75" s="5">
-        <v>1836</v>
+      <c r="D75" s="4" t="n">
+        <v>46076</v>
+      </c>
+      <c r="E75" s="5" t="n">
+        <v>3745.54</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A76" s="3" t="s">
         <v>27</v>
       </c>
@@ -2563,42 +2290,31 @@
       <c r="C76" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D76" s="4">
-        <v>46069</v>
-      </c>
-      <c r="E76" s="5">
-        <v>1560</v>
-      </c>
-      <c r="F76" s="3"/>
+      <c r="D76" s="4" t="n">
+        <v>46076</v>
+      </c>
+      <c r="E76" s="5" t="n">
+        <v>3800</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="G76" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D77" s="4">
-        <v>46071</v>
-      </c>
-      <c r="E77" s="5">
-        <v>2100</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>74</v>
-      </c>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" customHeight="true" ht="13.5" customFormat="true" s="1">
+      <c r="A77" s="6"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="8" t="n">
+        <v>368157.01</v>
+      </c>
+      <c r="F77" s="7"/>
+      <c r="G77" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G77" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="default" cellComments="none"/>
 </worksheet>
 </file>
--- a/dados/XLS_Grid_LANCAMENTO A RECEBER.xlsx
+++ b/dados/XLS_Grid_LANCAMENTO A RECEBER.xlsx
@@ -1,19 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINDOWS\Desktop\dados planilhas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929F3AF3-CFC8-48D8-A1A5-9506F6C668BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XLS_Grid_LANCAMENTO A RECEBER" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr refMode="A1"/>
+  <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="126">
   <si>
     <t>Funcionário</t>
   </si>
@@ -396,31 +408,30 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="dd/MM/yyyy" numFmtId="164"/>
-    <numFmt formatCode="###,###,##0.00" numFmtId="165"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="###,###,##0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
     <font>
+      <sz val="8"/>
       <color rgb="FF000000"/>
-      <sz val="8"/>
       <name val="Arial"/>
       <charset val="1"/>
     </font>
     <font>
+      <sz val="8"/>
       <color rgb="FF000000"/>
-      <sz val="8"/>
       <name val="Segoe UI"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,14 +450,8 @@
         <bgColor rgb="FF7EA6D1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF0F0F0"/>
-        <bgColor rgb="FFF0F0F0"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -469,117 +474,380 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFA0A0A0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFA0A0A0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA0A0A0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFA0A0A0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA0A0A0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFA0A0A0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFA0A0A0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA0A0A0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="2" fontId="1" numFmtId="164" xfId="0">
-      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="2" fontId="1" numFmtId="165" xfId="0">
-      <alignment horizontal="right" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="4" fontId="1" numFmtId="165" xfId="0">
-      <alignment horizontal="right" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="true" summaryRight="true"/>
-  </sheetPr>
-  <dimension ref="A1:G77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true" showZeros="true" showFormulas="false" showGridLines="true" showRowColHeaders="true">
-      <selection sqref="A1" activeCell="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:XFD77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.140625" customHeight="true" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col max="1" min="1" style="1" width="22.28515625" customWidth="true"/>
-    <col max="2" min="2" style="1" width="30.28515625" customWidth="true"/>
-    <col max="3" min="3" style="1" width="12.85546875" customWidth="true"/>
-    <col max="4" min="4" style="1" width="24.7109375" customWidth="true"/>
-    <col max="5" min="5" style="1" width="27.28515625" customWidth="true"/>
-    <col max="6" min="6" style="1" width="26.28515625" customWidth="true"/>
-    <col max="7" min="7" style="1" width="3.7109375" customWidth="true"/>
-    <col max="16384" min="8" style="1" width="12.140625"/>
+    <col min="1" max="1" width="22.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="12.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="true" ht="27" customFormat="true" s="1">
+    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -602,7 +870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -612,11 +880,11 @@
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="4">
         <v>45326</v>
       </c>
-      <c r="E2" s="5" t="n">
-        <v>9391.78</v>
+      <c r="E2" s="5">
+        <v>9391.7800000000007</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>10</v>
@@ -625,7 +893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -635,10 +903,10 @@
       <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="4">
         <v>45346</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="5">
         <v>5418</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -648,7 +916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -658,11 +926,11 @@
       <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="4">
         <v>45350</v>
       </c>
-      <c r="E4" s="5" t="n">
-        <v>1264.87</v>
+      <c r="E4" s="5">
+        <v>1264.8699999999999</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>16</v>
@@ -671,7 +939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -681,10 +949,10 @@
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="4">
         <v>45356</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="5">
         <v>5418</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -694,7 +962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -704,10 +972,10 @@
       <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="4">
         <v>45362</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="5">
         <v>384</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -717,7 +985,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -727,10 +995,10 @@
       <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="4">
         <v>45364</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="5">
         <v>816</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -740,7 +1008,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -750,10 +1018,10 @@
       <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="4">
         <v>45378</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="5">
         <v>816</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -763,7 +1031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -773,10 +1041,10 @@
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="4">
         <v>45463</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="5">
         <v>1674.52</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -786,7 +1054,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -796,10 +1064,10 @@
       <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="4">
         <v>45493</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10" s="5">
         <v>873.6</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -809,7 +1077,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -819,10 +1087,10 @@
       <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="4">
         <v>45523</v>
       </c>
-      <c r="E11" s="5" t="n">
+      <c r="E11" s="5">
         <v>873.6</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -832,7 +1100,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -842,10 +1110,10 @@
       <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="4">
         <v>45600</v>
       </c>
-      <c r="E12" s="5" t="n">
+      <c r="E12" s="5">
         <v>2000</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -855,7 +1123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -865,10 +1133,10 @@
       <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="4">
         <v>45607</v>
       </c>
-      <c r="E13" s="5" t="n">
+      <c r="E13" s="5">
         <v>3204.34</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -878,7 +1146,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
@@ -888,11 +1156,11 @@
       <c r="C14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="4">
         <v>45608</v>
       </c>
-      <c r="E14" s="5" t="n">
-        <v>4439.9</v>
+      <c r="E14" s="5">
+        <v>4439.8999999999996</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -901,7 +1169,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
@@ -911,10 +1179,10 @@
       <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="4">
         <v>45614</v>
       </c>
-      <c r="E15" s="5" t="n">
+      <c r="E15" s="5">
         <v>2000</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -924,7 +1192,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -934,11 +1202,11 @@
       <c r="C16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="4">
         <v>45615</v>
       </c>
-      <c r="E16" s="5" t="n">
-        <v>1216.86</v>
+      <c r="E16" s="5">
+        <v>1216.8599999999999</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>10</v>
@@ -947,7 +1215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
@@ -957,10 +1225,10 @@
       <c r="C17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="4">
         <v>45617</v>
       </c>
-      <c r="E17" s="5" t="n">
+      <c r="E17" s="5">
         <v>1843.87</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -970,7 +1238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
@@ -980,11 +1248,11 @@
       <c r="C18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="4">
         <v>45622</v>
       </c>
-      <c r="E18" s="5" t="n">
-        <v>1216.86</v>
+      <c r="E18" s="5">
+        <v>1216.8599999999999</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>10</v>
@@ -993,7 +1261,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
@@ -1003,11 +1271,11 @@
       <c r="C19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="4">
         <v>45622</v>
       </c>
-      <c r="E19" s="5" t="n">
-        <v>4439.9</v>
+      <c r="E19" s="5">
+        <v>4439.8999999999996</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>10</v>
@@ -1016,7 +1284,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
@@ -1026,10 +1294,10 @@
       <c r="C20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" s="4">
         <v>45624</v>
       </c>
-      <c r="E20" s="5" t="n">
+      <c r="E20" s="5">
         <v>1843.88</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -1039,7 +1307,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
@@ -1049,11 +1317,11 @@
       <c r="C21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="4">
         <v>45688</v>
       </c>
-      <c r="E21" s="5" t="n">
-        <v>1118.4</v>
+      <c r="E21" s="5">
+        <v>1118.4000000000001</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>10</v>
@@ -1062,7 +1330,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -1072,10 +1340,10 @@
       <c r="C22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="4">
         <v>45695</v>
       </c>
-      <c r="E22" s="5" t="n">
+      <c r="E22" s="5">
         <v>3296.8</v>
       </c>
       <c r="F22" s="3" t="s">
@@ -1085,7 +1353,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -1095,10 +1363,10 @@
       <c r="C23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="D23" s="4">
         <v>45699</v>
       </c>
-      <c r="E23" s="5" t="n">
+      <c r="E23" s="5">
         <v>2330</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -1108,7 +1376,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
@@ -1118,10 +1386,10 @@
       <c r="C24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D24" s="4">
         <v>45702</v>
       </c>
-      <c r="E24" s="5" t="n">
+      <c r="E24" s="5">
         <v>3296.8</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -1131,7 +1399,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1141,10 +1409,10 @@
       <c r="C25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="D25" s="4">
         <v>45705</v>
       </c>
-      <c r="E25" s="5" t="n">
+      <c r="E25" s="5">
         <v>2541</v>
       </c>
       <c r="F25" s="3" t="s">
@@ -1154,7 +1422,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -1164,10 +1432,10 @@
       <c r="C26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="D26" s="4">
         <v>45709</v>
       </c>
-      <c r="E26" s="5" t="n">
+      <c r="E26" s="5">
         <v>3296.8</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -1177,7 +1445,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
@@ -1187,10 +1455,10 @@
       <c r="C27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="D27" s="4">
         <v>45712</v>
       </c>
-      <c r="E27" s="5" t="n">
+      <c r="E27" s="5">
         <v>2541</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -1200,7 +1468,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -1210,10 +1478,10 @@
       <c r="C28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="4" t="n">
+      <c r="D28" s="4">
         <v>45726</v>
       </c>
-      <c r="E28" s="5" t="n">
+      <c r="E28" s="5">
         <v>2541</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -1223,7 +1491,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -1233,10 +1501,10 @@
       <c r="C29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="4" t="n">
+      <c r="D29" s="4">
         <v>45727</v>
       </c>
-      <c r="E29" s="5" t="n">
+      <c r="E29" s="5">
         <v>7562.78</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -1246,7 +1514,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
@@ -1256,10 +1524,10 @@
       <c r="C30" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="4" t="n">
+      <c r="D30" s="4">
         <v>45734</v>
       </c>
-      <c r="E30" s="5" t="n">
+      <c r="E30" s="5">
         <v>7562.78</v>
       </c>
       <c r="F30" s="3" t="s">
@@ -1269,7 +1537,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
@@ -1279,10 +1547,10 @@
       <c r="C31" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="D31" s="4">
         <v>45734</v>
       </c>
-      <c r="E31" s="5" t="n">
+      <c r="E31" s="5">
         <v>1154.56</v>
       </c>
       <c r="F31" s="3" t="s">
@@ -1292,7 +1560,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>27</v>
       </c>
@@ -1302,10 +1570,10 @@
       <c r="C32" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="4" t="n">
+      <c r="D32" s="4">
         <v>45740</v>
       </c>
-      <c r="E32" s="5" t="n">
+      <c r="E32" s="5">
         <v>2541</v>
       </c>
       <c r="F32" s="3" t="s">
@@ -1315,7 +1583,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
@@ -1325,10 +1593,10 @@
       <c r="C33" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="4" t="n">
+      <c r="D33" s="4">
         <v>45741</v>
       </c>
-      <c r="E33" s="5" t="n">
+      <c r="E33" s="5">
         <v>7562.78</v>
       </c>
       <c r="F33" s="3" t="s">
@@ -1338,7 +1606,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>31</v>
       </c>
@@ -1348,10 +1616,10 @@
       <c r="C34" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="4" t="n">
+      <c r="D34" s="4">
         <v>45741</v>
       </c>
-      <c r="E34" s="5" t="n">
+      <c r="E34" s="5">
         <v>1154.56</v>
       </c>
       <c r="F34" s="3" t="s">
@@ -1361,7 +1629,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="35" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>31</v>
       </c>
@@ -1371,10 +1639,10 @@
       <c r="C35" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="4" t="n">
+      <c r="D35" s="4">
         <v>45748</v>
       </c>
-      <c r="E35" s="5" t="n">
+      <c r="E35" s="5">
         <v>1154.56</v>
       </c>
       <c r="F35" s="3" t="s">
@@ -1384,7 +1652,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>27</v>
       </c>
@@ -1394,10 +1662,10 @@
       <c r="C36" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="4" t="n">
+      <c r="D36" s="4">
         <v>45748</v>
       </c>
-      <c r="E36" s="5" t="n">
+      <c r="E36" s="5">
         <v>7562.76</v>
       </c>
       <c r="F36" s="3" t="s">
@@ -1407,7 +1675,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
@@ -1417,10 +1685,10 @@
       <c r="C37" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="4" t="n">
+      <c r="D37" s="4">
         <v>45755</v>
       </c>
-      <c r="E37" s="5" t="n">
+      <c r="E37" s="5">
         <v>1154.56</v>
       </c>
       <c r="F37" s="3" t="s">
@@ -1430,7 +1698,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="38" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
@@ -1440,10 +1708,10 @@
       <c r="C38" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="4" t="n">
+      <c r="D38" s="4">
         <v>45761</v>
       </c>
-      <c r="E38" s="5" t="n">
+      <c r="E38" s="5">
         <v>6169.53</v>
       </c>
       <c r="F38" s="3" t="s">
@@ -1453,7 +1721,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>31</v>
       </c>
@@ -1463,10 +1731,10 @@
       <c r="C39" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="4" t="n">
+      <c r="D39" s="4">
         <v>45768</v>
       </c>
-      <c r="E39" s="5" t="n">
+      <c r="E39" s="5">
         <v>3850</v>
       </c>
       <c r="F39" s="3" t="s">
@@ -1476,7 +1744,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="40" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>31</v>
       </c>
@@ -1486,10 +1754,10 @@
       <c r="C40" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="4" t="n">
+      <c r="D40" s="4">
         <v>45775</v>
       </c>
-      <c r="E40" s="5" t="n">
+      <c r="E40" s="5">
         <v>3850</v>
       </c>
       <c r="F40" s="3" t="s">
@@ -1499,7 +1767,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="41" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>31</v>
       </c>
@@ -1509,10 +1777,10 @@
       <c r="C41" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="4" t="n">
+      <c r="D41" s="4">
         <v>45775</v>
       </c>
-      <c r="E41" s="5" t="n">
+      <c r="E41" s="5">
         <v>6089.41</v>
       </c>
       <c r="F41" s="3" t="s">
@@ -1522,7 +1790,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="42" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>31</v>
       </c>
@@ -1532,10 +1800,10 @@
       <c r="C42" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="4" t="n">
+      <c r="D42" s="4">
         <v>45782</v>
       </c>
-      <c r="E42" s="5" t="n">
+      <c r="E42" s="5">
         <v>3800</v>
       </c>
       <c r="F42" s="3" t="s">
@@ -1545,7 +1813,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="43" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>31</v>
       </c>
@@ -1555,10 +1823,10 @@
       <c r="C43" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="4" t="n">
+      <c r="D43" s="4">
         <v>45789</v>
       </c>
-      <c r="E43" s="5" t="n">
+      <c r="E43" s="5">
         <v>3800</v>
       </c>
       <c r="F43" s="3" t="s">
@@ -1568,7 +1836,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="44" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>71</v>
       </c>
@@ -1578,10 +1846,10 @@
       <c r="C44" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="4" t="n">
+      <c r="D44" s="4">
         <v>45789</v>
       </c>
-      <c r="E44" s="5" t="n">
+      <c r="E44" s="5">
         <v>1143.54</v>
       </c>
       <c r="F44" s="3" t="s">
@@ -1591,7 +1859,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="45" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>71</v>
       </c>
@@ -1601,10 +1869,10 @@
       <c r="C45" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="4" t="n">
+      <c r="D45" s="4">
         <v>45796</v>
       </c>
-      <c r="E45" s="5" t="n">
+      <c r="E45" s="5">
         <v>2287.06</v>
       </c>
       <c r="F45" s="3" t="s">
@@ -1614,7 +1882,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="46" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>13</v>
       </c>
@@ -1624,10 +1892,10 @@
       <c r="C46" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="4" t="n">
+      <c r="D46" s="4">
         <v>45874</v>
       </c>
-      <c r="E46" s="5" t="n">
+      <c r="E46" s="5">
         <v>1326</v>
       </c>
       <c r="F46" s="3"/>
@@ -1635,7 +1903,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="47" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>27</v>
       </c>
@@ -1645,10 +1913,10 @@
       <c r="C47" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D47" s="4" t="n">
+      <c r="D47" s="4">
         <v>45896</v>
       </c>
-      <c r="E47" s="5" t="n">
+      <c r="E47" s="5">
         <v>4572.62</v>
       </c>
       <c r="F47" s="3" t="s">
@@ -1658,7 +1926,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="48" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>27</v>
       </c>
@@ -1668,10 +1936,10 @@
       <c r="C48" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="4" t="n">
+      <c r="D48" s="4">
         <v>45910</v>
       </c>
-      <c r="E48" s="5" t="n">
+      <c r="E48" s="5">
         <v>3663.84</v>
       </c>
       <c r="F48" s="3" t="s">
@@ -1681,7 +1949,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="49" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>27</v>
       </c>
@@ -1691,10 +1959,10 @@
       <c r="C49" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="4" t="n">
+      <c r="D49" s="4">
         <v>45910</v>
       </c>
-      <c r="E49" s="5" t="n">
+      <c r="E49" s="5">
         <v>873.63</v>
       </c>
       <c r="F49" s="3" t="s">
@@ -1704,7 +1972,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="50" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>27</v>
       </c>
@@ -1714,10 +1982,10 @@
       <c r="C50" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D50" s="4" t="n">
+      <c r="D50" s="4">
         <v>45917</v>
       </c>
-      <c r="E50" s="5" t="n">
+      <c r="E50" s="5">
         <v>700</v>
       </c>
       <c r="F50" s="3" t="s">
@@ -1727,7 +1995,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="51" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>27</v>
       </c>
@@ -1737,10 +2005,10 @@
       <c r="C51" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D51" s="4" t="n">
+      <c r="D51" s="4">
         <v>45924</v>
       </c>
-      <c r="E51" s="5" t="n">
+      <c r="E51" s="5">
         <v>700</v>
       </c>
       <c r="F51" s="3" t="s">
@@ -1750,7 +2018,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="52" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>27</v>
       </c>
@@ -1760,10 +2028,10 @@
       <c r="C52" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D52" s="4" t="n">
+      <c r="D52" s="4">
         <v>45924</v>
       </c>
-      <c r="E52" s="5" t="n">
+      <c r="E52" s="5">
         <v>3663.84</v>
       </c>
       <c r="F52" s="3" t="s">
@@ -1773,7 +2041,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="53" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>85</v>
       </c>
@@ -1783,10 +2051,10 @@
       <c r="C53" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="4" t="n">
+      <c r="D53" s="4">
         <v>45947</v>
       </c>
-      <c r="E53" s="5" t="n">
+      <c r="E53" s="5">
         <v>3867.34</v>
       </c>
       <c r="F53" s="3" t="s">
@@ -1796,7 +2064,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="54" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>85</v>
       </c>
@@ -1806,10 +2074,10 @@
       <c r="C54" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D54" s="4" t="n">
+      <c r="D54" s="4">
         <v>45954</v>
       </c>
-      <c r="E54" s="5" t="n">
+      <c r="E54" s="5">
         <v>2144.59</v>
       </c>
       <c r="F54" s="3" t="s">
@@ -1819,7 +2087,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="55" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>85</v>
       </c>
@@ -1829,10 +2097,10 @@
       <c r="C55" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D55" s="4" t="n">
+      <c r="D55" s="4">
         <v>45961</v>
       </c>
-      <c r="E55" s="5" t="n">
+      <c r="E55" s="5">
         <v>2144.59</v>
       </c>
       <c r="F55" s="3" t="s">
@@ -1842,7 +2110,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="56" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>85</v>
       </c>
@@ -1852,10 +2120,10 @@
       <c r="C56" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D56" s="4" t="n">
+      <c r="D56" s="4">
         <v>45968</v>
       </c>
-      <c r="E56" s="5" t="n">
+      <c r="E56" s="5">
         <v>2144.59</v>
       </c>
       <c r="F56" s="3" t="s">
@@ -1865,7 +2133,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="57" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>85</v>
       </c>
@@ -1875,10 +2143,10 @@
       <c r="C57" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D57" s="4" t="n">
+      <c r="D57" s="4">
         <v>45980</v>
       </c>
-      <c r="E57" s="5" t="n">
+      <c r="E57" s="5">
         <v>63289.89</v>
       </c>
       <c r="F57" s="3"/>
@@ -1886,7 +2154,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>71</v>
       </c>
@@ -1896,10 +2164,10 @@
       <c r="C58" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D58" s="4" t="n">
+      <c r="D58" s="4">
         <v>45980</v>
       </c>
-      <c r="E58" s="5" t="n">
+      <c r="E58" s="5">
         <v>4480</v>
       </c>
       <c r="F58" s="3" t="s">
@@ -1909,7 +2177,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="59" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>85</v>
       </c>
@@ -1919,18 +2187,18 @@
       <c r="C59" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="4" t="n">
+      <c r="D59" s="4">
         <v>45987</v>
       </c>
-      <c r="E59" s="5" t="n">
-        <v>33844.16</v>
+      <c r="E59" s="5">
+        <v>33844.160000000003</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="60" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="60" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>71</v>
       </c>
@@ -1940,10 +2208,10 @@
       <c r="C60" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="4" t="n">
+      <c r="D60" s="4">
         <v>45989</v>
       </c>
-      <c r="E60" s="5" t="n">
+      <c r="E60" s="5">
         <v>3220</v>
       </c>
       <c r="F60" s="3"/>
@@ -1951,7 +2219,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>85</v>
       </c>
@@ -1961,10 +2229,10 @@
       <c r="C61" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D61" s="4" t="n">
+      <c r="D61" s="4">
         <v>45994</v>
       </c>
-      <c r="E61" s="5" t="n">
+      <c r="E61" s="5">
         <v>48208.79</v>
       </c>
       <c r="F61" s="3"/>
@@ -1972,7 +2240,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>41</v>
       </c>
@@ -1982,10 +2250,10 @@
       <c r="C62" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D62" s="4" t="n">
+      <c r="D62" s="4">
         <v>46048</v>
       </c>
-      <c r="E62" s="5" t="n">
+      <c r="E62" s="5">
         <v>2228</v>
       </c>
       <c r="F62" s="3"/>
@@ -1993,7 +2261,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="63" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>100</v>
       </c>
@@ -2003,10 +2271,10 @@
       <c r="C63" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D63" s="4" t="n">
+      <c r="D63" s="4">
         <v>46050</v>
       </c>
-      <c r="E63" s="5" t="n">
+      <c r="E63" s="5">
         <v>8610</v>
       </c>
       <c r="F63" s="3" t="s">
@@ -2016,7 +2284,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="64" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>41</v>
       </c>
@@ -2026,10 +2294,10 @@
       <c r="C64" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D64" s="4" t="n">
+      <c r="D64" s="4">
         <v>46062</v>
       </c>
-      <c r="E64" s="5" t="n">
+      <c r="E64" s="5">
         <v>2228</v>
       </c>
       <c r="F64" s="3"/>
@@ -2037,7 +2305,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="65" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>7</v>
       </c>
@@ -2047,10 +2315,10 @@
       <c r="C65" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D65" s="4" t="n">
+      <c r="D65" s="4">
         <v>46064</v>
       </c>
-      <c r="E65" s="5" t="n">
+      <c r="E65" s="5">
         <v>468</v>
       </c>
       <c r="F65" s="3"/>
@@ -2058,7 +2326,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="66" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>100</v>
       </c>
@@ -2068,10 +2336,10 @@
       <c r="C66" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D66" s="4" t="n">
+      <c r="D66" s="4">
         <v>46066</v>
       </c>
-      <c r="E66" s="5" t="n">
+      <c r="E66" s="5">
         <v>4736.72</v>
       </c>
       <c r="F66" s="3" t="s">
@@ -2081,7 +2349,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="67" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="67" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>13</v>
       </c>
@@ -2091,10 +2359,10 @@
       <c r="C67" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D67" s="4" t="n">
+      <c r="D67" s="4">
         <v>46069</v>
       </c>
-      <c r="E67" s="5" t="n">
+      <c r="E67" s="5">
         <v>1836</v>
       </c>
       <c r="F67" s="3"/>
@@ -2102,7 +2370,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="68" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>13</v>
       </c>
@@ -2112,10 +2380,10 @@
       <c r="C68" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D68" s="4" t="n">
+      <c r="D68" s="4">
         <v>46069</v>
       </c>
-      <c r="E68" s="5" t="n">
+      <c r="E68" s="5">
         <v>1836</v>
       </c>
       <c r="F68" s="3" t="s">
@@ -2125,7 +2393,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="69" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="69" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>71</v>
       </c>
@@ -2135,10 +2403,10 @@
       <c r="C69" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D69" s="4" t="n">
+      <c r="D69" s="4">
         <v>46071</v>
       </c>
-      <c r="E69" s="5" t="n">
+      <c r="E69" s="5">
         <v>2100</v>
       </c>
       <c r="F69" s="3" t="s">
@@ -2148,7 +2416,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="70" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>7</v>
       </c>
@@ -2158,10 +2426,10 @@
       <c r="C70" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D70" s="4" t="n">
+      <c r="D70" s="4">
         <v>46073</v>
       </c>
-      <c r="E70" s="5" t="n">
+      <c r="E70" s="5">
         <v>5898</v>
       </c>
       <c r="F70" s="3"/>
@@ -2169,7 +2437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="71" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>100</v>
       </c>
@@ -2179,10 +2447,10 @@
       <c r="C71" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D71" s="4" t="n">
+      <c r="D71" s="4">
         <v>46073</v>
       </c>
-      <c r="E71" s="5" t="n">
+      <c r="E71" s="5">
         <v>4736.72</v>
       </c>
       <c r="F71" s="3" t="s">
@@ -2192,7 +2460,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="72" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="72" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>7</v>
       </c>
@@ -2202,10 +2470,10 @@
       <c r="C72" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D72" s="4" t="n">
+      <c r="D72" s="4">
         <v>46074</v>
       </c>
-      <c r="E72" s="5" t="n">
+      <c r="E72" s="5">
         <v>468</v>
       </c>
       <c r="F72" s="3"/>
@@ -2213,7 +2481,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="73" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>13</v>
       </c>
@@ -2223,10 +2491,10 @@
       <c r="C73" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D73" s="4" t="n">
+      <c r="D73" s="4">
         <v>46075</v>
       </c>
-      <c r="E73" s="5" t="n">
+      <c r="E73" s="5">
         <v>837.49</v>
       </c>
       <c r="F73" s="3"/>
@@ -2234,7 +2502,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="74" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>85</v>
       </c>
@@ -2244,10 +2512,10 @@
       <c r="C74" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D74" s="4" t="n">
+      <c r="D74" s="4">
         <v>46076</v>
       </c>
-      <c r="E74" s="5" t="n">
+      <c r="E74" s="5">
         <v>7287</v>
       </c>
       <c r="F74" s="3" t="s">
@@ -2257,7 +2525,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="75" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>7</v>
       </c>
@@ -2267,10 +2535,10 @@
       <c r="C75" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D75" s="4" t="n">
+      <c r="D75" s="4">
         <v>46076</v>
       </c>
-      <c r="E75" s="5" t="n">
+      <c r="E75" s="5">
         <v>3745.54</v>
       </c>
       <c r="F75" s="3" t="s">
@@ -2280,7 +2548,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" customHeight="true" ht="14.25" customFormat="true" s="1">
+    <row r="76" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>27</v>
       </c>
@@ -2290,10 +2558,10 @@
       <c r="C76" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D76" s="4" t="n">
+      <c r="D76" s="4">
         <v>46076</v>
       </c>
-      <c r="E76" s="5" t="n">
+      <c r="E76" s="5">
         <v>3800</v>
       </c>
       <c r="F76" s="3" t="s">
@@ -2303,18 +2571,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="77" customHeight="true" ht="13.5" customFormat="true" s="1">
-      <c r="A77" s="6"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="8" t="n">
-        <v>368157.01</v>
-      </c>
-      <c r="F77" s="7"/>
-      <c r="G77" s="9"/>
-    </row>
   </sheetData>
-  <pageSetup orientation="default" cellComments="none"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/dados/XLS_Grid_LANCAMENTO A RECEBER.xlsx
+++ b/dados/XLS_Grid_LANCAMENTO A RECEBER.xlsx
@@ -1,31 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINDOWS\Desktop\dados planilhas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929F3AF3-CFC8-48D8-A1A5-9506F6C668BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true"/>
   </bookViews>
   <sheets>
     <sheet name="XLS_Grid_LANCAMENTO A RECEBER" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
+  <calcPr refMode="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>Funcionário</t>
   </si>
@@ -300,18 +288,18 @@
     <t>01004900.4</t>
   </si>
   <si>
+    <t>BR MEDICAMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>01005075.3</t>
+  </si>
+  <si>
     <t>PHARMACEUTICA DISTRIBUIDORA DE MAT. E MED. HOSPITA</t>
   </si>
   <si>
     <t>01005217.1BP</t>
   </si>
   <si>
-    <t>BR MEDICAMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>01005075.3</t>
-  </si>
-  <si>
     <t>01005217.2BP</t>
   </si>
   <si>
@@ -357,81 +345,61 @@
     <t>MA</t>
   </si>
   <si>
-    <t>ATACAMED COMERCIO LTDA</t>
-  </si>
-  <si>
-    <t>01005605.3</t>
-  </si>
-  <si>
-    <t>01005647.1</t>
+    <t>01005645.2</t>
+  </si>
+  <si>
+    <t>01005561.4</t>
+  </si>
+  <si>
+    <t>01005571.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZOE MED COMERCIO DE PRODUTOS MEDICOS HOSPITALARES </t>
+  </si>
+  <si>
+    <t>01005686.1</t>
   </si>
   <si>
     <t>CRALAB SAUDE ATACADO LTDA</t>
   </si>
   <si>
-    <t>01005664.1</t>
-  </si>
-  <si>
-    <t>01005561.4</t>
-  </si>
-  <si>
-    <t>01005645.2</t>
-  </si>
-  <si>
-    <t>01005571.4</t>
-  </si>
-  <si>
-    <t>K C L COSTA COMERCIO ATAC. DE MAT. HOSP. LTDA</t>
-  </si>
-  <si>
-    <t>01005695.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZOE MED COMERCIO DE PRODUTOS MEDICOS HOSPITALARES </t>
-  </si>
-  <si>
-    <t>01005686.1</t>
-  </si>
-  <si>
-    <t>ASPEN SERVICE COMERCIO LTDA</t>
-  </si>
-  <si>
-    <t>01005634.2</t>
+    <t>01005664.2</t>
   </si>
   <si>
     <t>L G PRODUTOS HOSPITALARES LTDA</t>
   </si>
   <si>
-    <t>01005621.3</t>
+    <t>01005718.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="###,###,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt formatCode="dd/MM/yyyy" numFmtId="164"/>
+    <numFmt formatCode="###,###,##0.00" numFmtId="165"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
       <sz val="8"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="1"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
       <sz val="8"/>
-      <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,8 +418,14 @@
         <bgColor rgb="FF7EA6D1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F0F0"/>
+        <bgColor rgb="FFF0F0F0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -474,380 +448,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA0A0A0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFA0A0A0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+  <cellXfs count="10">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="2" fontId="1" numFmtId="164" xfId="0">
+      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="2" fontId="1" numFmtId="165" xfId="0">
+      <alignment horizontal="right" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="4" fontId="1" numFmtId="165" xfId="0">
+      <alignment horizontal="right" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="0E2841"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="156082"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="E97132"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="196B24"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="A02B93"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="4EA72E"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="467886"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="96607D"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G76"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
+  </sheetPr>
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:XFD77"/>
+    <sheetView workbookViewId="0" tabSelected="true" showZeros="true" showFormulas="false" showGridLines="true" showRowColHeaders="true">
+      <selection sqref="A1" activeCell="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.140625" customHeight="true" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="12.140625" style="1"/>
+    <col max="1" min="1" style="1" width="22.28515625" customWidth="true"/>
+    <col max="2" min="2" style="1" width="30.28515625" customWidth="true"/>
+    <col max="3" min="3" style="1" width="12.85546875" customWidth="true"/>
+    <col max="4" min="4" style="1" width="24.7109375" customWidth="true"/>
+    <col max="5" min="5" style="1" width="27.28515625" customWidth="true"/>
+    <col max="6" min="6" style="1" width="26.28515625" customWidth="true"/>
+    <col max="7" min="7" style="1" width="3.7109375" customWidth="true"/>
+    <col max="16384" min="8" style="1" width="12.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customHeight="true" ht="27" customFormat="true" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -870,7 +581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -880,11 +591,11 @@
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="4" t="n">
         <v>45326</v>
       </c>
-      <c r="E2" s="5">
-        <v>9391.7800000000007</v>
+      <c r="E2" s="5" t="n">
+        <v>9391.78</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>10</v>
@@ -893,7 +604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -903,10 +614,10 @@
       <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="4" t="n">
         <v>45346</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="5" t="n">
         <v>5418</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -916,7 +627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -926,11 +637,11 @@
       <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="4" t="n">
         <v>45350</v>
       </c>
-      <c r="E4" s="5">
-        <v>1264.8699999999999</v>
+      <c r="E4" s="5" t="n">
+        <v>1264.87</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>16</v>
@@ -939,7 +650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -949,10 +660,10 @@
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="4" t="n">
         <v>45356</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="5" t="n">
         <v>5418</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -962,7 +673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -972,10 +683,10 @@
       <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="4" t="n">
         <v>45362</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="5" t="n">
         <v>384</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -985,7 +696,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -995,10 +706,10 @@
       <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="4" t="n">
         <v>45364</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="5" t="n">
         <v>816</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -1008,7 +719,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1018,10 +729,10 @@
       <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="4" t="n">
         <v>45378</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="5" t="n">
         <v>816</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -1031,7 +742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1041,10 +752,10 @@
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="4" t="n">
         <v>45463</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="5" t="n">
         <v>1674.52</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1054,7 +765,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1064,10 +775,10 @@
       <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="4" t="n">
         <v>45493</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="5" t="n">
         <v>873.6</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -1077,7 +788,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1087,10 +798,10 @@
       <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="4" t="n">
         <v>45523</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="5" t="n">
         <v>873.6</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -1100,7 +811,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -1110,10 +821,10 @@
       <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="4" t="n">
         <v>45600</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="5" t="n">
         <v>2000</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -1123,7 +834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -1133,10 +844,10 @@
       <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="4" t="n">
         <v>45607</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="5" t="n">
         <v>3204.34</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -1146,7 +857,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
@@ -1156,11 +867,11 @@
       <c r="C14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="4" t="n">
         <v>45608</v>
       </c>
-      <c r="E14" s="5">
-        <v>4439.8999999999996</v>
+      <c r="E14" s="5" t="n">
+        <v>4439.9</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -1169,7 +880,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
@@ -1179,10 +890,10 @@
       <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="4" t="n">
         <v>45614</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="5" t="n">
         <v>2000</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -1192,7 +903,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -1202,11 +913,11 @@
       <c r="C16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="4" t="n">
         <v>45615</v>
       </c>
-      <c r="E16" s="5">
-        <v>1216.8599999999999</v>
+      <c r="E16" s="5" t="n">
+        <v>1216.86</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>10</v>
@@ -1215,7 +926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
@@ -1225,10 +936,10 @@
       <c r="C17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="4" t="n">
         <v>45617</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="5" t="n">
         <v>1843.87</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -1238,7 +949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
@@ -1248,11 +959,11 @@
       <c r="C18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="4" t="n">
         <v>45622</v>
       </c>
-      <c r="E18" s="5">
-        <v>1216.8599999999999</v>
+      <c r="E18" s="5" t="n">
+        <v>1216.86</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>10</v>
@@ -1261,7 +972,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
@@ -1271,11 +982,11 @@
       <c r="C19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="4" t="n">
         <v>45622</v>
       </c>
-      <c r="E19" s="5">
-        <v>4439.8999999999996</v>
+      <c r="E19" s="5" t="n">
+        <v>4439.9</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>10</v>
@@ -1284,7 +995,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
@@ -1294,10 +1005,10 @@
       <c r="C20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="4" t="n">
         <v>45624</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="5" t="n">
         <v>1843.88</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -1307,7 +1018,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
@@ -1317,11 +1028,11 @@
       <c r="C21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="4" t="n">
         <v>45688</v>
       </c>
-      <c r="E21" s="5">
-        <v>1118.4000000000001</v>
+      <c r="E21" s="5" t="n">
+        <v>1118.4</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>10</v>
@@ -1330,7 +1041,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -1340,10 +1051,10 @@
       <c r="C22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="4" t="n">
         <v>45695</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="5" t="n">
         <v>3296.8</v>
       </c>
       <c r="F22" s="3" t="s">
@@ -1353,7 +1064,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -1363,10 +1074,10 @@
       <c r="C23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="4" t="n">
         <v>45699</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="5" t="n">
         <v>2330</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -1376,7 +1087,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
@@ -1386,10 +1097,10 @@
       <c r="C24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="4" t="n">
         <v>45702</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="5" t="n">
         <v>3296.8</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -1399,7 +1110,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1409,10 +1120,10 @@
       <c r="C25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="4" t="n">
         <v>45705</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="5" t="n">
         <v>2541</v>
       </c>
       <c r="F25" s="3" t="s">
@@ -1422,7 +1133,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -1432,10 +1143,10 @@
       <c r="C26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="4" t="n">
         <v>45709</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="5" t="n">
         <v>3296.8</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -1445,7 +1156,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
@@ -1455,10 +1166,10 @@
       <c r="C27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="4" t="n">
         <v>45712</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="5" t="n">
         <v>2541</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -1468,7 +1179,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -1478,10 +1189,10 @@
       <c r="C28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="4" t="n">
         <v>45726</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="5" t="n">
         <v>2541</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -1491,7 +1202,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -1501,10 +1212,10 @@
       <c r="C29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="4" t="n">
         <v>45727</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="5" t="n">
         <v>7562.78</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -1514,7 +1225,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
@@ -1524,10 +1235,10 @@
       <c r="C30" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="4" t="n">
         <v>45734</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="5" t="n">
         <v>7562.78</v>
       </c>
       <c r="F30" s="3" t="s">
@@ -1537,7 +1248,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
@@ -1547,10 +1258,10 @@
       <c r="C31" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="4" t="n">
         <v>45734</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="5" t="n">
         <v>1154.56</v>
       </c>
       <c r="F31" s="3" t="s">
@@ -1560,7 +1271,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A32" s="3" t="s">
         <v>27</v>
       </c>
@@ -1570,10 +1281,10 @@
       <c r="C32" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="4" t="n">
         <v>45740</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="5" t="n">
         <v>2541</v>
       </c>
       <c r="F32" s="3" t="s">
@@ -1583,7 +1294,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
@@ -1593,10 +1304,10 @@
       <c r="C33" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="4" t="n">
         <v>45741</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="5" t="n">
         <v>7562.78</v>
       </c>
       <c r="F33" s="3" t="s">
@@ -1606,7 +1317,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A34" s="3" t="s">
         <v>31</v>
       </c>
@@ -1616,10 +1327,10 @@
       <c r="C34" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="4" t="n">
         <v>45741</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="5" t="n">
         <v>1154.56</v>
       </c>
       <c r="F34" s="3" t="s">
@@ -1629,7 +1340,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A35" s="3" t="s">
         <v>31</v>
       </c>
@@ -1639,10 +1350,10 @@
       <c r="C35" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="4" t="n">
         <v>45748</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="5" t="n">
         <v>1154.56</v>
       </c>
       <c r="F35" s="3" t="s">
@@ -1652,7 +1363,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A36" s="3" t="s">
         <v>27</v>
       </c>
@@ -1662,10 +1373,10 @@
       <c r="C36" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="4" t="n">
         <v>45748</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="5" t="n">
         <v>7562.76</v>
       </c>
       <c r="F36" s="3" t="s">
@@ -1675,7 +1386,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
@@ -1685,10 +1396,10 @@
       <c r="C37" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="4" t="n">
         <v>45755</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="5" t="n">
         <v>1154.56</v>
       </c>
       <c r="F37" s="3" t="s">
@@ -1698,7 +1409,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
@@ -1708,10 +1419,10 @@
       <c r="C38" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="4" t="n">
         <v>45761</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="5" t="n">
         <v>6169.53</v>
       </c>
       <c r="F38" s="3" t="s">
@@ -1721,7 +1432,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A39" s="3" t="s">
         <v>31</v>
       </c>
@@ -1731,10 +1442,10 @@
       <c r="C39" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="4" t="n">
         <v>45768</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="5" t="n">
         <v>3850</v>
       </c>
       <c r="F39" s="3" t="s">
@@ -1744,7 +1455,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A40" s="3" t="s">
         <v>31</v>
       </c>
@@ -1754,10 +1465,10 @@
       <c r="C40" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="4" t="n">
         <v>45775</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="5" t="n">
         <v>3850</v>
       </c>
       <c r="F40" s="3" t="s">
@@ -1767,7 +1478,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A41" s="3" t="s">
         <v>31</v>
       </c>
@@ -1777,10 +1488,10 @@
       <c r="C41" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="4" t="n">
         <v>45775</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="5" t="n">
         <v>6089.41</v>
       </c>
       <c r="F41" s="3" t="s">
@@ -1790,7 +1501,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A42" s="3" t="s">
         <v>31</v>
       </c>
@@ -1800,10 +1511,10 @@
       <c r="C42" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="4" t="n">
         <v>45782</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="5" t="n">
         <v>3800</v>
       </c>
       <c r="F42" s="3" t="s">
@@ -1813,7 +1524,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A43" s="3" t="s">
         <v>31</v>
       </c>
@@ -1823,10 +1534,10 @@
       <c r="C43" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="4" t="n">
         <v>45789</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="5" t="n">
         <v>3800</v>
       </c>
       <c r="F43" s="3" t="s">
@@ -1836,7 +1547,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A44" s="3" t="s">
         <v>71</v>
       </c>
@@ -1846,10 +1557,10 @@
       <c r="C44" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="4" t="n">
         <v>45789</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="5" t="n">
         <v>1143.54</v>
       </c>
       <c r="F44" s="3" t="s">
@@ -1859,7 +1570,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A45" s="3" t="s">
         <v>71</v>
       </c>
@@ -1869,10 +1580,10 @@
       <c r="C45" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="4" t="n">
         <v>45796</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="5" t="n">
         <v>2287.06</v>
       </c>
       <c r="F45" s="3" t="s">
@@ -1882,7 +1593,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A46" s="3" t="s">
         <v>13</v>
       </c>
@@ -1892,10 +1603,10 @@
       <c r="C46" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="4" t="n">
         <v>45874</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="5" t="n">
         <v>1326</v>
       </c>
       <c r="F46" s="3"/>
@@ -1903,7 +1614,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A47" s="3" t="s">
         <v>27</v>
       </c>
@@ -1913,10 +1624,10 @@
       <c r="C47" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="4" t="n">
         <v>45896</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="5" t="n">
         <v>4572.62</v>
       </c>
       <c r="F47" s="3" t="s">
@@ -1926,7 +1637,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A48" s="3" t="s">
         <v>27</v>
       </c>
@@ -1936,10 +1647,10 @@
       <c r="C48" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="4" t="n">
         <v>45910</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="5" t="n">
         <v>3663.84</v>
       </c>
       <c r="F48" s="3" t="s">
@@ -1949,7 +1660,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A49" s="3" t="s">
         <v>27</v>
       </c>
@@ -1959,10 +1670,10 @@
       <c r="C49" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="4" t="n">
         <v>45910</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="5" t="n">
         <v>873.63</v>
       </c>
       <c r="F49" s="3" t="s">
@@ -1972,7 +1683,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A50" s="3" t="s">
         <v>27</v>
       </c>
@@ -1982,10 +1693,10 @@
       <c r="C50" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="4" t="n">
         <v>45917</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="5" t="n">
         <v>700</v>
       </c>
       <c r="F50" s="3" t="s">
@@ -1995,7 +1706,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A51" s="3" t="s">
         <v>27</v>
       </c>
@@ -2005,10 +1716,10 @@
       <c r="C51" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="4" t="n">
         <v>45924</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="5" t="n">
         <v>700</v>
       </c>
       <c r="F51" s="3" t="s">
@@ -2018,7 +1729,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A52" s="3" t="s">
         <v>27</v>
       </c>
@@ -2028,10 +1739,10 @@
       <c r="C52" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="4" t="n">
         <v>45924</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="5" t="n">
         <v>3663.84</v>
       </c>
       <c r="F52" s="3" t="s">
@@ -2041,7 +1752,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A53" s="3" t="s">
         <v>85</v>
       </c>
@@ -2051,10 +1762,10 @@
       <c r="C53" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="4" t="n">
         <v>45947</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="5" t="n">
         <v>3867.34</v>
       </c>
       <c r="F53" s="3" t="s">
@@ -2064,7 +1775,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A54" s="3" t="s">
         <v>85</v>
       </c>
@@ -2074,10 +1785,10 @@
       <c r="C54" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="4" t="n">
         <v>45954</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="5" t="n">
         <v>2144.59</v>
       </c>
       <c r="F54" s="3" t="s">
@@ -2087,7 +1798,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A55" s="3" t="s">
         <v>85</v>
       </c>
@@ -2097,10 +1808,10 @@
       <c r="C55" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="4" t="n">
         <v>45961</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="5" t="n">
         <v>2144.59</v>
       </c>
       <c r="F55" s="3" t="s">
@@ -2110,7 +1821,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A56" s="3" t="s">
         <v>85</v>
       </c>
@@ -2120,10 +1831,10 @@
       <c r="C56" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="4" t="n">
         <v>45968</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="5" t="n">
         <v>2144.59</v>
       </c>
       <c r="F56" s="3" t="s">
@@ -2133,9 +1844,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A57" s="3" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>91</v>
@@ -2143,20 +1854,22 @@
       <c r="C57" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="4" t="n">
         <v>45980</v>
       </c>
-      <c r="E57" s="5">
-        <v>63289.89</v>
-      </c>
-      <c r="F57" s="3"/>
+      <c r="E57" s="5" t="n">
+        <v>4480</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="G57" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A58" s="3" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>93</v>
@@ -2164,54 +1877,52 @@
       <c r="C58" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="4" t="n">
         <v>45980</v>
       </c>
-      <c r="E58" s="5">
-        <v>4480</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="E58" s="5" t="n">
+        <v>63289.89</v>
+      </c>
+      <c r="F58" s="3"/>
       <c r="G58" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A59" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="4" t="n">
         <v>45987</v>
       </c>
-      <c r="E59" s="5">
-        <v>33844.160000000003</v>
+      <c r="E59" s="5" t="n">
+        <v>33844.16</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A60" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="4" t="n">
         <v>45989</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="5" t="n">
         <v>3220</v>
       </c>
       <c r="F60" s="3"/>
@@ -2219,20 +1930,20 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A61" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="4" t="n">
         <v>45994</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="5" t="n">
         <v>48208.79</v>
       </c>
       <c r="F61" s="3"/>
@@ -2240,7 +1951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A62" s="3" t="s">
         <v>41</v>
       </c>
@@ -2250,10 +1961,10 @@
       <c r="C62" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="4" t="n">
         <v>46048</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E62" s="5" t="n">
         <v>2228</v>
       </c>
       <c r="F62" s="3"/>
@@ -2261,7 +1972,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A63" s="3" t="s">
         <v>100</v>
       </c>
@@ -2271,10 +1982,10 @@
       <c r="C63" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="4" t="n">
         <v>46050</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E63" s="5" t="n">
         <v>8610</v>
       </c>
       <c r="F63" s="3" t="s">
@@ -2284,7 +1995,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A64" s="3" t="s">
         <v>41</v>
       </c>
@@ -2294,10 +2005,10 @@
       <c r="C64" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="4" t="n">
         <v>46062</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E64" s="5" t="n">
         <v>2228</v>
       </c>
       <c r="F64" s="3"/>
@@ -2305,7 +2016,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A65" s="3" t="s">
         <v>7</v>
       </c>
@@ -2315,10 +2026,10 @@
       <c r="C65" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="4" t="n">
         <v>46064</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="5" t="n">
         <v>468</v>
       </c>
       <c r="F65" s="3"/>
@@ -2326,7 +2037,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A66" s="3" t="s">
         <v>100</v>
       </c>
@@ -2336,10 +2047,10 @@
       <c r="C66" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="4" t="n">
         <v>46066</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="5" t="n">
         <v>4736.72</v>
       </c>
       <c r="F66" s="3" t="s">
@@ -2349,229 +2060,152 @@
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A67" s="3" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="D67" s="4" t="n">
+        <v>46073</v>
+      </c>
+      <c r="E67" s="5" t="n">
+        <v>4736.72</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" customHeight="true" ht="14.25" customFormat="true" s="1">
+      <c r="A68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D67" s="4">
-        <v>46069</v>
-      </c>
-      <c r="E67" s="5">
-        <v>1836</v>
-      </c>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C68" s="3" t="s">
+      <c r="D68" s="4" t="n">
+        <v>46073</v>
+      </c>
+      <c r="E68" s="5" t="n">
+        <v>5898</v>
+      </c>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" customHeight="true" ht="14.25" customFormat="true" s="1">
+      <c r="A69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D68" s="4">
-        <v>46069</v>
-      </c>
-      <c r="E68" s="5">
-        <v>1836</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="D69" s="4" t="n">
+        <v>46074</v>
+      </c>
+      <c r="E69" s="5" t="n">
+        <v>468</v>
+      </c>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" customHeight="true" ht="14.25" customFormat="true" s="1">
+      <c r="A70" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D70" s="4" t="n">
+        <v>46076</v>
+      </c>
+      <c r="E70" s="5" t="n">
+        <v>7287</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" customHeight="true" ht="14.25" customFormat="true" s="1">
+      <c r="A71" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D69" s="4">
-        <v>46071</v>
-      </c>
-      <c r="E69" s="5">
-        <v>2100</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C70" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D70" s="4">
-        <v>46073</v>
-      </c>
-      <c r="E70" s="5">
-        <v>5898</v>
-      </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D71" s="4">
-        <v>46073</v>
-      </c>
-      <c r="E71" s="5">
-        <v>4736.72</v>
+      <c r="D71" s="4" t="n">
+        <v>46078</v>
+      </c>
+      <c r="E71" s="5" t="n">
+        <v>2100</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" customHeight="true" ht="14.25" customFormat="true" s="1">
       <c r="A72" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D72" s="4">
-        <v>46074</v>
-      </c>
-      <c r="E72" s="5">
-        <v>468</v>
-      </c>
-      <c r="F72" s="3"/>
+        <v>118</v>
+      </c>
+      <c r="D72" s="4" t="n">
+        <v>46079</v>
+      </c>
+      <c r="E72" s="5" t="n">
+        <v>5110.2</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="G72" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D73" s="4">
-        <v>46075</v>
-      </c>
-      <c r="E73" s="5">
-        <v>837.49</v>
-      </c>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D74" s="4">
-        <v>46076</v>
-      </c>
-      <c r="E74" s="5">
-        <v>7287</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D75" s="4">
-        <v>46076</v>
-      </c>
-      <c r="E75" s="5">
-        <v>3745.54</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D76" s="4">
-        <v>46076</v>
-      </c>
-      <c r="E76" s="5">
-        <v>3800</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>44</v>
-      </c>
+    <row r="73" customHeight="true" ht="13.5" customFormat="true" s="1">
+      <c r="A73" s="6"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="8" t="n">
+        <v>361212.18</v>
+      </c>
+      <c r="F73" s="7"/>
+      <c r="G73" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="default" cellComments="none"/>
 </worksheet>
 </file>